--- a/IPI.xlsx
+++ b/IPI.xlsx
@@ -249,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:DO33"/>
+  <dimension ref="A1:GI33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -374,6 +374,78 @@
     <col min="117" max="117" width="19.53125" customWidth="true"/>
     <col min="118" max="118" width="19.53125" customWidth="true"/>
     <col min="119" max="119" width="19.53125" customWidth="true"/>
+    <col min="120" max="120" width="19.53125" customWidth="true"/>
+    <col min="121" max="121" width="19.53125" customWidth="true"/>
+    <col min="122" max="122" width="19.53125" customWidth="true"/>
+    <col min="123" max="123" width="19.53125" customWidth="true"/>
+    <col min="124" max="124" width="19.53125" customWidth="true"/>
+    <col min="125" max="125" width="19.53125" customWidth="true"/>
+    <col min="126" max="126" width="19.53125" customWidth="true"/>
+    <col min="127" max="127" width="19.53125" customWidth="true"/>
+    <col min="128" max="128" width="19.53125" customWidth="true"/>
+    <col min="129" max="129" width="19.53125" customWidth="true"/>
+    <col min="130" max="130" width="19.53125" customWidth="true"/>
+    <col min="131" max="131" width="19.53125" customWidth="true"/>
+    <col min="132" max="132" width="19.53125" customWidth="true"/>
+    <col min="133" max="133" width="19.53125" customWidth="true"/>
+    <col min="134" max="134" width="19.53125" customWidth="true"/>
+    <col min="135" max="135" width="19.53125" customWidth="true"/>
+    <col min="136" max="136" width="19.53125" customWidth="true"/>
+    <col min="137" max="137" width="19.53125" customWidth="true"/>
+    <col min="138" max="138" width="19.53125" customWidth="true"/>
+    <col min="139" max="139" width="19.53125" customWidth="true"/>
+    <col min="140" max="140" width="19.53125" customWidth="true"/>
+    <col min="141" max="141" width="19.53125" customWidth="true"/>
+    <col min="142" max="142" width="19.53125" customWidth="true"/>
+    <col min="143" max="143" width="19.53125" customWidth="true"/>
+    <col min="144" max="144" width="19.53125" customWidth="true"/>
+    <col min="145" max="145" width="19.53125" customWidth="true"/>
+    <col min="146" max="146" width="19.53125" customWidth="true"/>
+    <col min="147" max="147" width="19.53125" customWidth="true"/>
+    <col min="148" max="148" width="19.53125" customWidth="true"/>
+    <col min="149" max="149" width="19.53125" customWidth="true"/>
+    <col min="150" max="150" width="19.53125" customWidth="true"/>
+    <col min="151" max="151" width="19.53125" customWidth="true"/>
+    <col min="152" max="152" width="19.53125" customWidth="true"/>
+    <col min="153" max="153" width="19.53125" customWidth="true"/>
+    <col min="154" max="154" width="19.53125" customWidth="true"/>
+    <col min="155" max="155" width="19.53125" customWidth="true"/>
+    <col min="156" max="156" width="19.53125" customWidth="true"/>
+    <col min="157" max="157" width="19.53125" customWidth="true"/>
+    <col min="158" max="158" width="19.53125" customWidth="true"/>
+    <col min="159" max="159" width="19.53125" customWidth="true"/>
+    <col min="160" max="160" width="19.53125" customWidth="true"/>
+    <col min="161" max="161" width="19.53125" customWidth="true"/>
+    <col min="162" max="162" width="19.53125" customWidth="true"/>
+    <col min="163" max="163" width="19.53125" customWidth="true"/>
+    <col min="164" max="164" width="19.53125" customWidth="true"/>
+    <col min="165" max="165" width="19.53125" customWidth="true"/>
+    <col min="166" max="166" width="19.53125" customWidth="true"/>
+    <col min="167" max="167" width="19.53125" customWidth="true"/>
+    <col min="168" max="168" width="19.53125" customWidth="true"/>
+    <col min="169" max="169" width="19.53125" customWidth="true"/>
+    <col min="170" max="170" width="19.53125" customWidth="true"/>
+    <col min="171" max="171" width="19.53125" customWidth="true"/>
+    <col min="172" max="172" width="19.53125" customWidth="true"/>
+    <col min="173" max="173" width="19.53125" customWidth="true"/>
+    <col min="174" max="174" width="19.53125" customWidth="true"/>
+    <col min="175" max="175" width="19.53125" customWidth="true"/>
+    <col min="176" max="176" width="19.53125" customWidth="true"/>
+    <col min="177" max="177" width="19.53125" customWidth="true"/>
+    <col min="178" max="178" width="19.53125" customWidth="true"/>
+    <col min="179" max="179" width="19.53125" customWidth="true"/>
+    <col min="180" max="180" width="19.53125" customWidth="true"/>
+    <col min="181" max="181" width="19.53125" customWidth="true"/>
+    <col min="182" max="182" width="19.53125" customWidth="true"/>
+    <col min="183" max="183" width="19.53125" customWidth="true"/>
+    <col min="184" max="184" width="19.53125" customWidth="true"/>
+    <col min="185" max="185" width="19.53125" customWidth="true"/>
+    <col min="186" max="186" width="19.53125" customWidth="true"/>
+    <col min="187" max="187" width="19.53125" customWidth="true"/>
+    <col min="188" max="188" width="19.53125" customWidth="true"/>
+    <col min="189" max="189" width="19.53125" customWidth="true"/>
+    <col min="190" max="190" width="19.53125" customWidth="true"/>
+    <col min="191" max="191" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -606,6 +678,78 @@
       <c r="DM7" s="6"/>
       <c r="DN7" s="6"/>
       <c r="DO7" s="6"/>
+      <c r="DP7" s="6"/>
+      <c r="DQ7" s="6"/>
+      <c r="DR7" s="6"/>
+      <c r="DS7" s="6"/>
+      <c r="DT7" s="6"/>
+      <c r="DU7" s="6"/>
+      <c r="DV7" s="6"/>
+      <c r="DW7" s="6"/>
+      <c r="DX7" s="6"/>
+      <c r="DY7" s="6"/>
+      <c r="DZ7" s="6"/>
+      <c r="EA7" s="6"/>
+      <c r="EB7" s="6"/>
+      <c r="EC7" s="6"/>
+      <c r="ED7" s="6"/>
+      <c r="EE7" s="6"/>
+      <c r="EF7" s="6"/>
+      <c r="EG7" s="6"/>
+      <c r="EH7" s="6"/>
+      <c r="EI7" s="6"/>
+      <c r="EJ7" s="6"/>
+      <c r="EK7" s="6"/>
+      <c r="EL7" s="6"/>
+      <c r="EM7" s="6"/>
+      <c r="EN7" s="6"/>
+      <c r="EO7" s="6"/>
+      <c r="EP7" s="6"/>
+      <c r="EQ7" s="6"/>
+      <c r="ER7" s="6"/>
+      <c r="ES7" s="6"/>
+      <c r="ET7" s="6"/>
+      <c r="EU7" s="6"/>
+      <c r="EV7" s="6"/>
+      <c r="EW7" s="6"/>
+      <c r="EX7" s="6"/>
+      <c r="EY7" s="6"/>
+      <c r="EZ7" s="6"/>
+      <c r="FA7" s="6"/>
+      <c r="FB7" s="6"/>
+      <c r="FC7" s="6"/>
+      <c r="FD7" s="6"/>
+      <c r="FE7" s="6"/>
+      <c r="FF7" s="6"/>
+      <c r="FG7" s="6"/>
+      <c r="FH7" s="6"/>
+      <c r="FI7" s="6"/>
+      <c r="FJ7" s="6"/>
+      <c r="FK7" s="6"/>
+      <c r="FL7" s="6"/>
+      <c r="FM7" s="6"/>
+      <c r="FN7" s="6"/>
+      <c r="FO7" s="6"/>
+      <c r="FP7" s="6"/>
+      <c r="FQ7" s="6"/>
+      <c r="FR7" s="6"/>
+      <c r="FS7" s="6"/>
+      <c r="FT7" s="6"/>
+      <c r="FU7" s="6"/>
+      <c r="FV7" s="6"/>
+      <c r="FW7" s="6"/>
+      <c r="FX7" s="6"/>
+      <c r="FY7" s="6"/>
+      <c r="FZ7" s="6"/>
+      <c r="GA7" s="6"/>
+      <c r="GB7" s="6"/>
+      <c r="GC7" s="6"/>
+      <c r="GD7" s="6"/>
+      <c r="GE7" s="6"/>
+      <c r="GF7" s="6"/>
+      <c r="GG7" s="6"/>
+      <c r="GH7" s="6"/>
+      <c r="GI7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
@@ -735,6 +879,78 @@
       <c r="DM8" s="7"/>
       <c r="DN8" s="7"/>
       <c r="DO8" s="7"/>
+      <c r="DP8" s="7"/>
+      <c r="DQ8" s="7"/>
+      <c r="DR8" s="7"/>
+      <c r="DS8" s="7"/>
+      <c r="DT8" s="7"/>
+      <c r="DU8" s="7"/>
+      <c r="DV8" s="7"/>
+      <c r="DW8" s="7"/>
+      <c r="DX8" s="7"/>
+      <c r="DY8" s="7"/>
+      <c r="DZ8" s="7"/>
+      <c r="EA8" s="7"/>
+      <c r="EB8" s="7"/>
+      <c r="EC8" s="7"/>
+      <c r="ED8" s="7"/>
+      <c r="EE8" s="7"/>
+      <c r="EF8" s="7"/>
+      <c r="EG8" s="7"/>
+      <c r="EH8" s="7"/>
+      <c r="EI8" s="7"/>
+      <c r="EJ8" s="7"/>
+      <c r="EK8" s="7"/>
+      <c r="EL8" s="7"/>
+      <c r="EM8" s="7"/>
+      <c r="EN8" s="7"/>
+      <c r="EO8" s="7"/>
+      <c r="EP8" s="7"/>
+      <c r="EQ8" s="7"/>
+      <c r="ER8" s="7"/>
+      <c r="ES8" s="7"/>
+      <c r="ET8" s="7"/>
+      <c r="EU8" s="7"/>
+      <c r="EV8" s="7"/>
+      <c r="EW8" s="7"/>
+      <c r="EX8" s="7"/>
+      <c r="EY8" s="7"/>
+      <c r="EZ8" s="7"/>
+      <c r="FA8" s="7"/>
+      <c r="FB8" s="7"/>
+      <c r="FC8" s="7"/>
+      <c r="FD8" s="7"/>
+      <c r="FE8" s="7"/>
+      <c r="FF8" s="7"/>
+      <c r="FG8" s="7"/>
+      <c r="FH8" s="7"/>
+      <c r="FI8" s="7"/>
+      <c r="FJ8" s="7"/>
+      <c r="FK8" s="7"/>
+      <c r="FL8" s="7"/>
+      <c r="FM8" s="7"/>
+      <c r="FN8" s="7"/>
+      <c r="FO8" s="7"/>
+      <c r="FP8" s="7"/>
+      <c r="FQ8" s="7"/>
+      <c r="FR8" s="7"/>
+      <c r="FS8" s="7"/>
+      <c r="FT8" s="7"/>
+      <c r="FU8" s="7"/>
+      <c r="FV8" s="7"/>
+      <c r="FW8" s="7"/>
+      <c r="FX8" s="7"/>
+      <c r="FY8" s="7"/>
+      <c r="FZ8" s="7"/>
+      <c r="GA8" s="7"/>
+      <c r="GB8" s="7"/>
+      <c r="GC8" s="7"/>
+      <c r="GD8" s="7"/>
+      <c r="GE8" s="7"/>
+      <c r="GF8" s="7"/>
+      <c r="GG8" s="7"/>
+      <c r="GH8" s="7"/>
+      <c r="GI8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="12" t="inlineStr">
@@ -1332,6 +1548,366 @@
           <t>2016M01</t>
         </is>
       </c>
+      <c r="DP9" s="8" t="inlineStr">
+        <is>
+          <t>2015M12</t>
+        </is>
+      </c>
+      <c r="DQ9" s="8" t="inlineStr">
+        <is>
+          <t>2015M11</t>
+        </is>
+      </c>
+      <c r="DR9" s="8" t="inlineStr">
+        <is>
+          <t>2015M10</t>
+        </is>
+      </c>
+      <c r="DS9" s="8" t="inlineStr">
+        <is>
+          <t>2015M09</t>
+        </is>
+      </c>
+      <c r="DT9" s="8" t="inlineStr">
+        <is>
+          <t>2015M08</t>
+        </is>
+      </c>
+      <c r="DU9" s="8" t="inlineStr">
+        <is>
+          <t>2015M07</t>
+        </is>
+      </c>
+      <c r="DV9" s="8" t="inlineStr">
+        <is>
+          <t>2015M06</t>
+        </is>
+      </c>
+      <c r="DW9" s="8" t="inlineStr">
+        <is>
+          <t>2015M05</t>
+        </is>
+      </c>
+      <c r="DX9" s="8" t="inlineStr">
+        <is>
+          <t>2015M04</t>
+        </is>
+      </c>
+      <c r="DY9" s="8" t="inlineStr">
+        <is>
+          <t>2015M03</t>
+        </is>
+      </c>
+      <c r="DZ9" s="8" t="inlineStr">
+        <is>
+          <t>2015M02</t>
+        </is>
+      </c>
+      <c r="EA9" s="8" t="inlineStr">
+        <is>
+          <t>2015M01</t>
+        </is>
+      </c>
+      <c r="EB9" s="8" t="inlineStr">
+        <is>
+          <t>2014M12</t>
+        </is>
+      </c>
+      <c r="EC9" s="8" t="inlineStr">
+        <is>
+          <t>2014M11</t>
+        </is>
+      </c>
+      <c r="ED9" s="8" t="inlineStr">
+        <is>
+          <t>2014M10</t>
+        </is>
+      </c>
+      <c r="EE9" s="8" t="inlineStr">
+        <is>
+          <t>2014M09</t>
+        </is>
+      </c>
+      <c r="EF9" s="8" t="inlineStr">
+        <is>
+          <t>2014M08</t>
+        </is>
+      </c>
+      <c r="EG9" s="8" t="inlineStr">
+        <is>
+          <t>2014M07</t>
+        </is>
+      </c>
+      <c r="EH9" s="8" t="inlineStr">
+        <is>
+          <t>2014M06</t>
+        </is>
+      </c>
+      <c r="EI9" s="8" t="inlineStr">
+        <is>
+          <t>2014M05</t>
+        </is>
+      </c>
+      <c r="EJ9" s="8" t="inlineStr">
+        <is>
+          <t>2014M04</t>
+        </is>
+      </c>
+      <c r="EK9" s="8" t="inlineStr">
+        <is>
+          <t>2014M03</t>
+        </is>
+      </c>
+      <c r="EL9" s="8" t="inlineStr">
+        <is>
+          <t>2014M02</t>
+        </is>
+      </c>
+      <c r="EM9" s="8" t="inlineStr">
+        <is>
+          <t>2014M01</t>
+        </is>
+      </c>
+      <c r="EN9" s="8" t="inlineStr">
+        <is>
+          <t>2013M12</t>
+        </is>
+      </c>
+      <c r="EO9" s="8" t="inlineStr">
+        <is>
+          <t>2013M11</t>
+        </is>
+      </c>
+      <c r="EP9" s="8" t="inlineStr">
+        <is>
+          <t>2013M10</t>
+        </is>
+      </c>
+      <c r="EQ9" s="8" t="inlineStr">
+        <is>
+          <t>2013M09</t>
+        </is>
+      </c>
+      <c r="ER9" s="8" t="inlineStr">
+        <is>
+          <t>2013M08</t>
+        </is>
+      </c>
+      <c r="ES9" s="8" t="inlineStr">
+        <is>
+          <t>2013M07</t>
+        </is>
+      </c>
+      <c r="ET9" s="8" t="inlineStr">
+        <is>
+          <t>2013M06</t>
+        </is>
+      </c>
+      <c r="EU9" s="8" t="inlineStr">
+        <is>
+          <t>2013M05</t>
+        </is>
+      </c>
+      <c r="EV9" s="8" t="inlineStr">
+        <is>
+          <t>2013M04</t>
+        </is>
+      </c>
+      <c r="EW9" s="8" t="inlineStr">
+        <is>
+          <t>2013M03</t>
+        </is>
+      </c>
+      <c r="EX9" s="8" t="inlineStr">
+        <is>
+          <t>2013M02</t>
+        </is>
+      </c>
+      <c r="EY9" s="8" t="inlineStr">
+        <is>
+          <t>2013M01</t>
+        </is>
+      </c>
+      <c r="EZ9" s="8" t="inlineStr">
+        <is>
+          <t>2012M12</t>
+        </is>
+      </c>
+      <c r="FA9" s="8" t="inlineStr">
+        <is>
+          <t>2012M11</t>
+        </is>
+      </c>
+      <c r="FB9" s="8" t="inlineStr">
+        <is>
+          <t>2012M10</t>
+        </is>
+      </c>
+      <c r="FC9" s="8" t="inlineStr">
+        <is>
+          <t>2012M09</t>
+        </is>
+      </c>
+      <c r="FD9" s="8" t="inlineStr">
+        <is>
+          <t>2012M08</t>
+        </is>
+      </c>
+      <c r="FE9" s="8" t="inlineStr">
+        <is>
+          <t>2012M07</t>
+        </is>
+      </c>
+      <c r="FF9" s="8" t="inlineStr">
+        <is>
+          <t>2012M06</t>
+        </is>
+      </c>
+      <c r="FG9" s="8" t="inlineStr">
+        <is>
+          <t>2012M05</t>
+        </is>
+      </c>
+      <c r="FH9" s="8" t="inlineStr">
+        <is>
+          <t>2012M04</t>
+        </is>
+      </c>
+      <c r="FI9" s="8" t="inlineStr">
+        <is>
+          <t>2012M03</t>
+        </is>
+      </c>
+      <c r="FJ9" s="8" t="inlineStr">
+        <is>
+          <t>2012M02</t>
+        </is>
+      </c>
+      <c r="FK9" s="8" t="inlineStr">
+        <is>
+          <t>2012M01</t>
+        </is>
+      </c>
+      <c r="FL9" s="8" t="inlineStr">
+        <is>
+          <t>2011M12</t>
+        </is>
+      </c>
+      <c r="FM9" s="8" t="inlineStr">
+        <is>
+          <t>2011M11</t>
+        </is>
+      </c>
+      <c r="FN9" s="8" t="inlineStr">
+        <is>
+          <t>2011M10</t>
+        </is>
+      </c>
+      <c r="FO9" s="8" t="inlineStr">
+        <is>
+          <t>2011M09</t>
+        </is>
+      </c>
+      <c r="FP9" s="8" t="inlineStr">
+        <is>
+          <t>2011M08</t>
+        </is>
+      </c>
+      <c r="FQ9" s="8" t="inlineStr">
+        <is>
+          <t>2011M07</t>
+        </is>
+      </c>
+      <c r="FR9" s="8" t="inlineStr">
+        <is>
+          <t>2011M06</t>
+        </is>
+      </c>
+      <c r="FS9" s="8" t="inlineStr">
+        <is>
+          <t>2011M05</t>
+        </is>
+      </c>
+      <c r="FT9" s="8" t="inlineStr">
+        <is>
+          <t>2011M04</t>
+        </is>
+      </c>
+      <c r="FU9" s="8" t="inlineStr">
+        <is>
+          <t>2011M03</t>
+        </is>
+      </c>
+      <c r="FV9" s="8" t="inlineStr">
+        <is>
+          <t>2011M02</t>
+        </is>
+      </c>
+      <c r="FW9" s="8" t="inlineStr">
+        <is>
+          <t>2011M01</t>
+        </is>
+      </c>
+      <c r="FX9" s="8" t="inlineStr">
+        <is>
+          <t>2010M12</t>
+        </is>
+      </c>
+      <c r="FY9" s="8" t="inlineStr">
+        <is>
+          <t>2010M11</t>
+        </is>
+      </c>
+      <c r="FZ9" s="8" t="inlineStr">
+        <is>
+          <t>2010M10</t>
+        </is>
+      </c>
+      <c r="GA9" s="8" t="inlineStr">
+        <is>
+          <t>2010M09</t>
+        </is>
+      </c>
+      <c r="GB9" s="8" t="inlineStr">
+        <is>
+          <t>2010M08</t>
+        </is>
+      </c>
+      <c r="GC9" s="8" t="inlineStr">
+        <is>
+          <t>2010M07</t>
+        </is>
+      </c>
+      <c r="GD9" s="8" t="inlineStr">
+        <is>
+          <t>2010M06</t>
+        </is>
+      </c>
+      <c r="GE9" s="8" t="inlineStr">
+        <is>
+          <t>2010M05</t>
+        </is>
+      </c>
+      <c r="GF9" s="8" t="inlineStr">
+        <is>
+          <t>2010M04</t>
+        </is>
+      </c>
+      <c r="GG9" s="8" t="inlineStr">
+        <is>
+          <t>2010M03</t>
+        </is>
+      </c>
+      <c r="GH9" s="8" t="inlineStr">
+        <is>
+          <t>2010M02</t>
+        </is>
+      </c>
+      <c r="GI9" s="8" t="inlineStr">
+        <is>
+          <t>2010M01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -1693,6 +2269,222 @@
       <c r="DO10" s="14" t="n">
         <v>104.445</v>
       </c>
+      <c r="DP10" s="14" t="n">
+        <v>104.368</v>
+      </c>
+      <c r="DQ10" s="14" t="n">
+        <v>102.805</v>
+      </c>
+      <c r="DR10" s="14" t="n">
+        <v>103.906</v>
+      </c>
+      <c r="DS10" s="14" t="n">
+        <v>104.098</v>
+      </c>
+      <c r="DT10" s="14" t="n">
+        <v>100.323</v>
+      </c>
+      <c r="DU10" s="14" t="n">
+        <v>122.085</v>
+      </c>
+      <c r="DV10" s="14" t="n">
+        <v>111.606</v>
+      </c>
+      <c r="DW10" s="14" t="n">
+        <v>109.133</v>
+      </c>
+      <c r="DX10" s="14" t="n">
+        <v>100.971</v>
+      </c>
+      <c r="DY10" s="14" t="n">
+        <v>110.286</v>
+      </c>
+      <c r="DZ10" s="14" t="n">
+        <v>96.43</v>
+      </c>
+      <c r="EA10" s="14" t="n">
+        <v>96.924</v>
+      </c>
+      <c r="EB10" s="14" t="n">
+        <v>98.767</v>
+      </c>
+      <c r="EC10" s="14" t="n">
+        <v>96.028</v>
+      </c>
+      <c r="ED10" s="14" t="n">
+        <v>99.099</v>
+      </c>
+      <c r="EE10" s="14" t="n">
+        <v>103.394</v>
+      </c>
+      <c r="EF10" s="14" t="n">
+        <v>92.386</v>
+      </c>
+      <c r="EG10" s="14" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="EH10" s="14" t="n">
+        <v>108.723</v>
+      </c>
+      <c r="EI10" s="14" t="n">
+        <v>104.709</v>
+      </c>
+      <c r="EJ10" s="14" t="n">
+        <v>94.041</v>
+      </c>
+      <c r="EK10" s="14" t="n">
+        <v>105.974</v>
+      </c>
+      <c r="EL10" s="14" t="n">
+        <v>95.693</v>
+      </c>
+      <c r="EM10" s="14" t="n">
+        <v>105.607</v>
+      </c>
+      <c r="EN10" s="14" t="n">
+        <v>104.478</v>
+      </c>
+      <c r="EO10" s="14" t="n">
+        <v>95.146</v>
+      </c>
+      <c r="EP10" s="14" t="n">
+        <v>101.573</v>
+      </c>
+      <c r="EQ10" s="14" t="n">
+        <v>98.649</v>
+      </c>
+      <c r="ER10" s="14" t="n">
+        <v>93.866</v>
+      </c>
+      <c r="ES10" s="14" t="n">
+        <v>110.523</v>
+      </c>
+      <c r="ET10" s="14" t="n">
+        <v>98.849</v>
+      </c>
+      <c r="EU10" s="14" t="n">
+        <v>100.456</v>
+      </c>
+      <c r="EV10" s="14" t="n">
+        <v>96.11</v>
+      </c>
+      <c r="EW10" s="14" t="n">
+        <v>94.863</v>
+      </c>
+      <c r="EX10" s="14" t="n">
+        <v>92.68</v>
+      </c>
+      <c r="EY10" s="14" t="n">
+        <v>99.346</v>
+      </c>
+      <c r="EZ10" s="14" t="n">
+        <v>96.844</v>
+      </c>
+      <c r="FA10" s="14" t="n">
+        <v>98.177</v>
+      </c>
+      <c r="FB10" s="14" t="n">
+        <v>104.122</v>
+      </c>
+      <c r="FC10" s="14" t="n">
+        <v>97.448</v>
+      </c>
+      <c r="FD10" s="14" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="FE10" s="14" t="n">
+        <v>113.351</v>
+      </c>
+      <c r="FF10" s="14" t="n">
+        <v>108.238</v>
+      </c>
+      <c r="FG10" s="14" t="n">
+        <v>105.442</v>
+      </c>
+      <c r="FH10" s="14" t="n">
+        <v>97.96</v>
+      </c>
+      <c r="FI10" s="14" t="n">
+        <v>113.768</v>
+      </c>
+      <c r="FJ10" s="14" t="n">
+        <v>106.607</v>
+      </c>
+      <c r="FK10" s="14" t="n">
+        <v>120.097</v>
+      </c>
+      <c r="FL10" s="14" t="n">
+        <v>115.067</v>
+      </c>
+      <c r="FM10" s="14" t="n">
+        <v>111.647</v>
+      </c>
+      <c r="FN10" s="14" t="n">
+        <v>107.834</v>
+      </c>
+      <c r="FO10" s="14" t="n">
+        <v>115.079</v>
+      </c>
+      <c r="FP10" s="14" t="n">
+        <v>104.753</v>
+      </c>
+      <c r="FQ10" s="14" t="n">
+        <v>120.392</v>
+      </c>
+      <c r="FR10" s="14" t="n">
+        <v>113.944</v>
+      </c>
+      <c r="FS10" s="14" t="n">
+        <v>104.513</v>
+      </c>
+      <c r="FT10" s="14" t="n">
+        <v>101.651</v>
+      </c>
+      <c r="FU10" s="14" t="n">
+        <v>118.932</v>
+      </c>
+      <c r="FV10" s="14" t="n">
+        <v>112.508</v>
+      </c>
+      <c r="FW10" s="14" t="n">
+        <v>114.883</v>
+      </c>
+      <c r="FX10" s="14" t="n">
+        <v>117.838</v>
+      </c>
+      <c r="FY10" s="14" t="n">
+        <v>119.012</v>
+      </c>
+      <c r="FZ10" s="14" t="n">
+        <v>115.343</v>
+      </c>
+      <c r="GA10" s="14" t="n">
+        <v>116.077</v>
+      </c>
+      <c r="GB10" s="14" t="n">
+        <v>101.255</v>
+      </c>
+      <c r="GC10" s="14" t="n">
+        <v>120.186</v>
+      </c>
+      <c r="GD10" s="14" t="n">
+        <v>120.626</v>
+      </c>
+      <c r="GE10" s="14" t="n">
+        <v>110.354</v>
+      </c>
+      <c r="GF10" s="14" t="n">
+        <v>109.326</v>
+      </c>
+      <c r="GG10" s="14" t="n">
+        <v>128.697</v>
+      </c>
+      <c r="GH10" s="14" t="n">
+        <v>109.913</v>
+      </c>
+      <c r="GI10" s="14" t="n">
+        <v>114.462</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -2054,6 +2846,222 @@
       <c r="DO11" s="14" t="n">
         <v>90.99</v>
       </c>
+      <c r="DP11" s="14" t="n">
+        <v>86.305</v>
+      </c>
+      <c r="DQ11" s="14" t="n">
+        <v>96.283</v>
+      </c>
+      <c r="DR11" s="14" t="n">
+        <v>100.591</v>
+      </c>
+      <c r="DS11" s="14" t="n">
+        <v>105.558</v>
+      </c>
+      <c r="DT11" s="14" t="n">
+        <v>77.544</v>
+      </c>
+      <c r="DU11" s="14" t="n">
+        <v>117.235</v>
+      </c>
+      <c r="DV11" s="14" t="n">
+        <v>108.14</v>
+      </c>
+      <c r="DW11" s="14" t="n">
+        <v>103.614</v>
+      </c>
+      <c r="DX11" s="14" t="n">
+        <v>99.99</v>
+      </c>
+      <c r="DY11" s="14" t="n">
+        <v>105.359</v>
+      </c>
+      <c r="DZ11" s="14" t="n">
+        <v>91.941</v>
+      </c>
+      <c r="EA11" s="14" t="n">
+        <v>89.452</v>
+      </c>
+      <c r="EB11" s="14" t="n">
+        <v>89.058</v>
+      </c>
+      <c r="EC11" s="14" t="n">
+        <v>90.129</v>
+      </c>
+      <c r="ED11" s="14" t="n">
+        <v>107.964</v>
+      </c>
+      <c r="EE11" s="14" t="n">
+        <v>103.345</v>
+      </c>
+      <c r="EF11" s="14" t="n">
+        <v>79.801</v>
+      </c>
+      <c r="EG11" s="14" t="n">
+        <v>113.264</v>
+      </c>
+      <c r="EH11" s="14" t="n">
+        <v>103.227</v>
+      </c>
+      <c r="EI11" s="14" t="n">
+        <v>103.511</v>
+      </c>
+      <c r="EJ11" s="14" t="n">
+        <v>94.676</v>
+      </c>
+      <c r="EK11" s="14" t="n">
+        <v>101.174</v>
+      </c>
+      <c r="EL11" s="14" t="n">
+        <v>91.931</v>
+      </c>
+      <c r="EM11" s="14" t="n">
+        <v>91.33</v>
+      </c>
+      <c r="EN11" s="14" t="n">
+        <v>81.227</v>
+      </c>
+      <c r="EO11" s="14" t="n">
+        <v>91.606</v>
+      </c>
+      <c r="EP11" s="14" t="n">
+        <v>94.601</v>
+      </c>
+      <c r="EQ11" s="14" t="n">
+        <v>97.506</v>
+      </c>
+      <c r="ER11" s="14" t="n">
+        <v>83.971</v>
+      </c>
+      <c r="ES11" s="14" t="n">
+        <v>112.336</v>
+      </c>
+      <c r="ET11" s="14" t="n">
+        <v>100.156</v>
+      </c>
+      <c r="EU11" s="14" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="EV11" s="14" t="n">
+        <v>88.783</v>
+      </c>
+      <c r="EW11" s="14" t="n">
+        <v>90.197</v>
+      </c>
+      <c r="EX11" s="14" t="n">
+        <v>88.738</v>
+      </c>
+      <c r="EY11" s="14" t="n">
+        <v>86.842</v>
+      </c>
+      <c r="EZ11" s="14" t="n">
+        <v>82.005</v>
+      </c>
+      <c r="FA11" s="14" t="n">
+        <v>92.279</v>
+      </c>
+      <c r="FB11" s="14" t="n">
+        <v>94.517</v>
+      </c>
+      <c r="FC11" s="14" t="n">
+        <v>91.463</v>
+      </c>
+      <c r="FD11" s="14" t="n">
+        <v>85.953</v>
+      </c>
+      <c r="FE11" s="14" t="n">
+        <v>106.844</v>
+      </c>
+      <c r="FF11" s="14" t="n">
+        <v>103.234</v>
+      </c>
+      <c r="FG11" s="14" t="n">
+        <v>104.738</v>
+      </c>
+      <c r="FH11" s="14" t="n">
+        <v>87.022</v>
+      </c>
+      <c r="FI11" s="14" t="n">
+        <v>100.92</v>
+      </c>
+      <c r="FJ11" s="14" t="n">
+        <v>105.207</v>
+      </c>
+      <c r="FK11" s="14" t="n">
+        <v>95.186</v>
+      </c>
+      <c r="FL11" s="14" t="n">
+        <v>83.247</v>
+      </c>
+      <c r="FM11" s="14" t="n">
+        <v>100.507</v>
+      </c>
+      <c r="FN11" s="14" t="n">
+        <v>97.172</v>
+      </c>
+      <c r="FO11" s="14" t="n">
+        <v>106.764</v>
+      </c>
+      <c r="FP11" s="14" t="n">
+        <v>79.169</v>
+      </c>
+      <c r="FQ11" s="14" t="n">
+        <v>111.642</v>
+      </c>
+      <c r="FR11" s="14" t="n">
+        <v>113.938</v>
+      </c>
+      <c r="FS11" s="14" t="n">
+        <v>106.18</v>
+      </c>
+      <c r="FT11" s="14" t="n">
+        <v>99.02</v>
+      </c>
+      <c r="FU11" s="14" t="n">
+        <v>107.293</v>
+      </c>
+      <c r="FV11" s="14" t="n">
+        <v>98.682</v>
+      </c>
+      <c r="FW11" s="14" t="n">
+        <v>93.419</v>
+      </c>
+      <c r="FX11" s="14" t="n">
+        <v>92.962</v>
+      </c>
+      <c r="FY11" s="14" t="n">
+        <v>110.913</v>
+      </c>
+      <c r="FZ11" s="14" t="n">
+        <v>102.354</v>
+      </c>
+      <c r="GA11" s="14" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="GB11" s="14" t="n">
+        <v>70.613</v>
+      </c>
+      <c r="GC11" s="14" t="n">
+        <v>104.731</v>
+      </c>
+      <c r="GD11" s="14" t="n">
+        <v>108.179</v>
+      </c>
+      <c r="GE11" s="14" t="n">
+        <v>103.78</v>
+      </c>
+      <c r="GF11" s="14" t="n">
+        <v>94.389</v>
+      </c>
+      <c r="GG11" s="14" t="n">
+        <v>107.584</v>
+      </c>
+      <c r="GH11" s="14" t="n">
+        <v>98.906</v>
+      </c>
+      <c r="GI11" s="14" t="n">
+        <v>90.585</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -2415,6 +3423,222 @@
       <c r="DO12" s="14" t="n">
         <v>86.432</v>
       </c>
+      <c r="DP12" s="14" t="n">
+        <v>92.96</v>
+      </c>
+      <c r="DQ12" s="14" t="n">
+        <v>100.055</v>
+      </c>
+      <c r="DR12" s="14" t="n">
+        <v>104.817</v>
+      </c>
+      <c r="DS12" s="14" t="n">
+        <v>99.765</v>
+      </c>
+      <c r="DT12" s="14" t="n">
+        <v>87.876</v>
+      </c>
+      <c r="DU12" s="14" t="n">
+        <v>104.793</v>
+      </c>
+      <c r="DV12" s="14" t="n">
+        <v>100.075</v>
+      </c>
+      <c r="DW12" s="14" t="n">
+        <v>94.976</v>
+      </c>
+      <c r="DX12" s="14" t="n">
+        <v>92.785</v>
+      </c>
+      <c r="DY12" s="14" t="n">
+        <v>104.723</v>
+      </c>
+      <c r="DZ12" s="14" t="n">
+        <v>88.854</v>
+      </c>
+      <c r="EA12" s="14" t="n">
+        <v>96.372</v>
+      </c>
+      <c r="EB12" s="14" t="n">
+        <v>91.367</v>
+      </c>
+      <c r="EC12" s="14" t="n">
+        <v>92.635</v>
+      </c>
+      <c r="ED12" s="14" t="n">
+        <v>98.059</v>
+      </c>
+      <c r="EE12" s="14" t="n">
+        <v>96.24</v>
+      </c>
+      <c r="EF12" s="14" t="n">
+        <v>81.427</v>
+      </c>
+      <c r="EG12" s="14" t="n">
+        <v>94.049</v>
+      </c>
+      <c r="EH12" s="14" t="n">
+        <v>95.449</v>
+      </c>
+      <c r="EI12" s="14" t="n">
+        <v>93.335</v>
+      </c>
+      <c r="EJ12" s="14" t="n">
+        <v>85.994</v>
+      </c>
+      <c r="EK12" s="14" t="n">
+        <v>87.478</v>
+      </c>
+      <c r="EL12" s="14" t="n">
+        <v>80.382</v>
+      </c>
+      <c r="EM12" s="14" t="n">
+        <v>89.24</v>
+      </c>
+      <c r="EN12" s="14" t="n">
+        <v>89.644</v>
+      </c>
+      <c r="EO12" s="14" t="n">
+        <v>92.608</v>
+      </c>
+      <c r="EP12" s="14" t="n">
+        <v>105.671</v>
+      </c>
+      <c r="EQ12" s="14" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="ER12" s="14" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="ES12" s="14" t="n">
+        <v>96.912</v>
+      </c>
+      <c r="ET12" s="14" t="n">
+        <v>86.948</v>
+      </c>
+      <c r="EU12" s="14" t="n">
+        <v>93.852</v>
+      </c>
+      <c r="EV12" s="14" t="n">
+        <v>90.799</v>
+      </c>
+      <c r="EW12" s="14" t="n">
+        <v>87.287</v>
+      </c>
+      <c r="EX12" s="14" t="n">
+        <v>88.797</v>
+      </c>
+      <c r="EY12" s="14" t="n">
+        <v>93.693</v>
+      </c>
+      <c r="EZ12" s="14" t="n">
+        <v>83.168</v>
+      </c>
+      <c r="FA12" s="14" t="n">
+        <v>89.102</v>
+      </c>
+      <c r="FB12" s="14" t="n">
+        <v>98.524</v>
+      </c>
+      <c r="FC12" s="14" t="n">
+        <v>87.954</v>
+      </c>
+      <c r="FD12" s="14" t="n">
+        <v>84.709</v>
+      </c>
+      <c r="FE12" s="14" t="n">
+        <v>96.452</v>
+      </c>
+      <c r="FF12" s="14" t="n">
+        <v>98.86</v>
+      </c>
+      <c r="FG12" s="14" t="n">
+        <v>100.395</v>
+      </c>
+      <c r="FH12" s="14" t="n">
+        <v>89.495</v>
+      </c>
+      <c r="FI12" s="14" t="n">
+        <v>98.984</v>
+      </c>
+      <c r="FJ12" s="14" t="n">
+        <v>101.084</v>
+      </c>
+      <c r="FK12" s="14" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="FL12" s="14" t="n">
+        <v>86.234</v>
+      </c>
+      <c r="FM12" s="14" t="n">
+        <v>97.268</v>
+      </c>
+      <c r="FN12" s="14" t="n">
+        <v>104.479</v>
+      </c>
+      <c r="FO12" s="14" t="n">
+        <v>104.164</v>
+      </c>
+      <c r="FP12" s="14" t="n">
+        <v>91.742</v>
+      </c>
+      <c r="FQ12" s="14" t="n">
+        <v>96.895</v>
+      </c>
+      <c r="FR12" s="14" t="n">
+        <v>103.143</v>
+      </c>
+      <c r="FS12" s="14" t="n">
+        <v>106.177</v>
+      </c>
+      <c r="FT12" s="14" t="n">
+        <v>98.176</v>
+      </c>
+      <c r="FU12" s="14" t="n">
+        <v>112.479</v>
+      </c>
+      <c r="FV12" s="14" t="n">
+        <v>102.232</v>
+      </c>
+      <c r="FW12" s="14" t="n">
+        <v>98.067</v>
+      </c>
+      <c r="FX12" s="14" t="n">
+        <v>96.779</v>
+      </c>
+      <c r="FY12" s="14" t="n">
+        <v>104.224</v>
+      </c>
+      <c r="FZ12" s="14" t="n">
+        <v>110.638</v>
+      </c>
+      <c r="GA12" s="14" t="n">
+        <v>105.369</v>
+      </c>
+      <c r="GB12" s="14" t="n">
+        <v>91.282</v>
+      </c>
+      <c r="GC12" s="14" t="n">
+        <v>101.361</v>
+      </c>
+      <c r="GD12" s="14" t="n">
+        <v>104.453</v>
+      </c>
+      <c r="GE12" s="14" t="n">
+        <v>107.889</v>
+      </c>
+      <c r="GF12" s="14" t="n">
+        <v>96.207</v>
+      </c>
+      <c r="GG12" s="14" t="n">
+        <v>110.294</v>
+      </c>
+      <c r="GH12" s="14" t="n">
+        <v>96.894</v>
+      </c>
+      <c r="GI12" s="14" t="n">
+        <v>91.053</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -2776,6 +4000,222 @@
       <c r="DO13" s="14" t="n">
         <v>104.008</v>
       </c>
+      <c r="DP13" s="14" t="n">
+        <v>106.23</v>
+      </c>
+      <c r="DQ13" s="14" t="n">
+        <v>102.72</v>
+      </c>
+      <c r="DR13" s="14" t="n">
+        <v>120.665</v>
+      </c>
+      <c r="DS13" s="14" t="n">
+        <v>130.067</v>
+      </c>
+      <c r="DT13" s="14" t="n">
+        <v>146.535</v>
+      </c>
+      <c r="DU13" s="14" t="n">
+        <v>162.447</v>
+      </c>
+      <c r="DV13" s="14" t="n">
+        <v>134.318</v>
+      </c>
+      <c r="DW13" s="14" t="n">
+        <v>126.519</v>
+      </c>
+      <c r="DX13" s="14" t="n">
+        <v>111.19</v>
+      </c>
+      <c r="DY13" s="14" t="n">
+        <v>120.916</v>
+      </c>
+      <c r="DZ13" s="14" t="n">
+        <v>116.928</v>
+      </c>
+      <c r="EA13" s="14" t="n">
+        <v>120.618</v>
+      </c>
+      <c r="EB13" s="14" t="n">
+        <v>119.119</v>
+      </c>
+      <c r="EC13" s="14" t="n">
+        <v>102.852</v>
+      </c>
+      <c r="ED13" s="14" t="n">
+        <v>130.669</v>
+      </c>
+      <c r="EE13" s="14" t="n">
+        <v>136.434</v>
+      </c>
+      <c r="EF13" s="14" t="n">
+        <v>131.773</v>
+      </c>
+      <c r="EG13" s="14" t="n">
+        <v>141.871</v>
+      </c>
+      <c r="EH13" s="14" t="n">
+        <v>128.493</v>
+      </c>
+      <c r="EI13" s="14" t="n">
+        <v>130.667</v>
+      </c>
+      <c r="EJ13" s="14" t="n">
+        <v>114.364</v>
+      </c>
+      <c r="EK13" s="14" t="n">
+        <v>123.973</v>
+      </c>
+      <c r="EL13" s="14" t="n">
+        <v>108.253</v>
+      </c>
+      <c r="EM13" s="14" t="n">
+        <v>107.469</v>
+      </c>
+      <c r="EN13" s="14" t="n">
+        <v>113.297</v>
+      </c>
+      <c r="EO13" s="14" t="n">
+        <v>104.217</v>
+      </c>
+      <c r="EP13" s="14" t="n">
+        <v>123.925</v>
+      </c>
+      <c r="EQ13" s="14" t="n">
+        <v>125.531</v>
+      </c>
+      <c r="ER13" s="14" t="n">
+        <v>141.263</v>
+      </c>
+      <c r="ES13" s="14" t="n">
+        <v>156.71</v>
+      </c>
+      <c r="ET13" s="14" t="n">
+        <v>133.84</v>
+      </c>
+      <c r="EU13" s="14" t="n">
+        <v>129.112</v>
+      </c>
+      <c r="EV13" s="14" t="n">
+        <v>116.442</v>
+      </c>
+      <c r="EW13" s="14" t="n">
+        <v>115.386</v>
+      </c>
+      <c r="EX13" s="14" t="n">
+        <v>111.929</v>
+      </c>
+      <c r="EY13" s="14" t="n">
+        <v>108.626</v>
+      </c>
+      <c r="EZ13" s="14" t="n">
+        <v>102.502</v>
+      </c>
+      <c r="FA13" s="14" t="n">
+        <v>105.204</v>
+      </c>
+      <c r="FB13" s="14" t="n">
+        <v>121.657</v>
+      </c>
+      <c r="FC13" s="14" t="n">
+        <v>134.839</v>
+      </c>
+      <c r="FD13" s="14" t="n">
+        <v>160.473</v>
+      </c>
+      <c r="FE13" s="14" t="n">
+        <v>156.513</v>
+      </c>
+      <c r="FF13" s="14" t="n">
+        <v>144.834</v>
+      </c>
+      <c r="FG13" s="14" t="n">
+        <v>125.941</v>
+      </c>
+      <c r="FH13" s="14" t="n">
+        <v>117.243</v>
+      </c>
+      <c r="FI13" s="14" t="n">
+        <v>116.09</v>
+      </c>
+      <c r="FJ13" s="14" t="n">
+        <v>141.796</v>
+      </c>
+      <c r="FK13" s="14" t="n">
+        <v>122.88</v>
+      </c>
+      <c r="FL13" s="14" t="n">
+        <v>119.213</v>
+      </c>
+      <c r="FM13" s="14" t="n">
+        <v>105.23</v>
+      </c>
+      <c r="FN13" s="14" t="n">
+        <v>126.017</v>
+      </c>
+      <c r="FO13" s="14" t="n">
+        <v>145.927</v>
+      </c>
+      <c r="FP13" s="14" t="n">
+        <v>159.68</v>
+      </c>
+      <c r="FQ13" s="14" t="n">
+        <v>163.632</v>
+      </c>
+      <c r="FR13" s="14" t="n">
+        <v>144.797</v>
+      </c>
+      <c r="FS13" s="14" t="n">
+        <v>143.94</v>
+      </c>
+      <c r="FT13" s="14" t="n">
+        <v>118.086</v>
+      </c>
+      <c r="FU13" s="14" t="n">
+        <v>137.973</v>
+      </c>
+      <c r="FV13" s="14" t="n">
+        <v>130.197</v>
+      </c>
+      <c r="FW13" s="14" t="n">
+        <v>128.756</v>
+      </c>
+      <c r="FX13" s="14" t="n">
+        <v>129.441</v>
+      </c>
+      <c r="FY13" s="14" t="n">
+        <v>127.08</v>
+      </c>
+      <c r="FZ13" s="14" t="n">
+        <v>125.506</v>
+      </c>
+      <c r="GA13" s="14" t="n">
+        <v>133.965</v>
+      </c>
+      <c r="GB13" s="14" t="n">
+        <v>134.162</v>
+      </c>
+      <c r="GC13" s="14" t="n">
+        <v>159.342</v>
+      </c>
+      <c r="GD13" s="14" t="n">
+        <v>146.555</v>
+      </c>
+      <c r="GE13" s="14" t="n">
+        <v>140.654</v>
+      </c>
+      <c r="GF13" s="14" t="n">
+        <v>135.932</v>
+      </c>
+      <c r="GG13" s="14" t="n">
+        <v>161.703</v>
+      </c>
+      <c r="GH13" s="14" t="n">
+        <v>136.916</v>
+      </c>
+      <c r="GI13" s="14" t="n">
+        <v>130.621</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -3137,6 +4577,222 @@
       <c r="DO14" s="14" t="n">
         <v>110.031</v>
       </c>
+      <c r="DP14" s="14" t="n">
+        <v>111.764</v>
+      </c>
+      <c r="DQ14" s="14" t="n">
+        <v>112.752</v>
+      </c>
+      <c r="DR14" s="14" t="n">
+        <v>115.548</v>
+      </c>
+      <c r="DS14" s="14" t="n">
+        <v>115.886</v>
+      </c>
+      <c r="DT14" s="14" t="n">
+        <v>118.596</v>
+      </c>
+      <c r="DU14" s="14" t="n">
+        <v>124.691</v>
+      </c>
+      <c r="DV14" s="14" t="n">
+        <v>112.007</v>
+      </c>
+      <c r="DW14" s="14" t="n">
+        <v>114.292</v>
+      </c>
+      <c r="DX14" s="14" t="n">
+        <v>101.425</v>
+      </c>
+      <c r="DY14" s="14" t="n">
+        <v>108.291</v>
+      </c>
+      <c r="DZ14" s="14" t="n">
+        <v>104.627</v>
+      </c>
+      <c r="EA14" s="14" t="n">
+        <v>113.344</v>
+      </c>
+      <c r="EB14" s="14" t="n">
+        <v>112.25</v>
+      </c>
+      <c r="EC14" s="14" t="n">
+        <v>115.063</v>
+      </c>
+      <c r="ED14" s="14" t="n">
+        <v>126.673</v>
+      </c>
+      <c r="EE14" s="14" t="n">
+        <v>117.473</v>
+      </c>
+      <c r="EF14" s="14" t="n">
+        <v>110.761</v>
+      </c>
+      <c r="EG14" s="14" t="n">
+        <v>118.872</v>
+      </c>
+      <c r="EH14" s="14" t="n">
+        <v>113.216</v>
+      </c>
+      <c r="EI14" s="14" t="n">
+        <v>112.603</v>
+      </c>
+      <c r="EJ14" s="14" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="EK14" s="14" t="n">
+        <v>105.259</v>
+      </c>
+      <c r="EL14" s="14" t="n">
+        <v>108.605</v>
+      </c>
+      <c r="EM14" s="14" t="n">
+        <v>109.046</v>
+      </c>
+      <c r="EN14" s="14" t="n">
+        <v>108.644</v>
+      </c>
+      <c r="EO14" s="14" t="n">
+        <v>118.88</v>
+      </c>
+      <c r="EP14" s="14" t="n">
+        <v>121.156</v>
+      </c>
+      <c r="EQ14" s="14" t="n">
+        <v>113.913</v>
+      </c>
+      <c r="ER14" s="14" t="n">
+        <v>117.386</v>
+      </c>
+      <c r="ES14" s="14" t="n">
+        <v>122.274</v>
+      </c>
+      <c r="ET14" s="14" t="n">
+        <v>109.779</v>
+      </c>
+      <c r="EU14" s="14" t="n">
+        <v>111.767</v>
+      </c>
+      <c r="EV14" s="14" t="n">
+        <v>112.23</v>
+      </c>
+      <c r="EW14" s="14" t="n">
+        <v>110.547</v>
+      </c>
+      <c r="EX14" s="14" t="n">
+        <v>103.18</v>
+      </c>
+      <c r="EY14" s="14" t="n">
+        <v>111.573</v>
+      </c>
+      <c r="EZ14" s="14" t="n">
+        <v>107.468</v>
+      </c>
+      <c r="FA14" s="14" t="n">
+        <v>117.789</v>
+      </c>
+      <c r="FB14" s="14" t="n">
+        <v>126.889</v>
+      </c>
+      <c r="FC14" s="14" t="n">
+        <v>117.283</v>
+      </c>
+      <c r="FD14" s="14" t="n">
+        <v>124.666</v>
+      </c>
+      <c r="FE14" s="14" t="n">
+        <v>124.75</v>
+      </c>
+      <c r="FF14" s="14" t="n">
+        <v>120.342</v>
+      </c>
+      <c r="FG14" s="14" t="n">
+        <v>112.709</v>
+      </c>
+      <c r="FH14" s="14" t="n">
+        <v>108.935</v>
+      </c>
+      <c r="FI14" s="14" t="n">
+        <v>121.881</v>
+      </c>
+      <c r="FJ14" s="14" t="n">
+        <v>119.741</v>
+      </c>
+      <c r="FK14" s="14" t="n">
+        <v>117.725</v>
+      </c>
+      <c r="FL14" s="14" t="n">
+        <v>125.688</v>
+      </c>
+      <c r="FM14" s="14" t="n">
+        <v>126.114</v>
+      </c>
+      <c r="FN14" s="14" t="n">
+        <v>122.109</v>
+      </c>
+      <c r="FO14" s="14" t="n">
+        <v>124.255</v>
+      </c>
+      <c r="FP14" s="14" t="n">
+        <v>129.765</v>
+      </c>
+      <c r="FQ14" s="14" t="n">
+        <v>131.357</v>
+      </c>
+      <c r="FR14" s="14" t="n">
+        <v>127.686</v>
+      </c>
+      <c r="FS14" s="14" t="n">
+        <v>123.342</v>
+      </c>
+      <c r="FT14" s="14" t="n">
+        <v>116.954</v>
+      </c>
+      <c r="FU14" s="14" t="n">
+        <v>124.261</v>
+      </c>
+      <c r="FV14" s="14" t="n">
+        <v>111.052</v>
+      </c>
+      <c r="FW14" s="14" t="n">
+        <v>114.608</v>
+      </c>
+      <c r="FX14" s="14" t="n">
+        <v>123.023</v>
+      </c>
+      <c r="FY14" s="14" t="n">
+        <v>124.766</v>
+      </c>
+      <c r="FZ14" s="14" t="n">
+        <v>116.632</v>
+      </c>
+      <c r="GA14" s="14" t="n">
+        <v>122.006</v>
+      </c>
+      <c r="GB14" s="14" t="n">
+        <v>127.09</v>
+      </c>
+      <c r="GC14" s="14" t="n">
+        <v>136.095</v>
+      </c>
+      <c r="GD14" s="14" t="n">
+        <v>125.492</v>
+      </c>
+      <c r="GE14" s="14" t="n">
+        <v>113.437</v>
+      </c>
+      <c r="GF14" s="14" t="n">
+        <v>116.777</v>
+      </c>
+      <c r="GG14" s="14" t="n">
+        <v>124.621</v>
+      </c>
+      <c r="GH14" s="14" t="n">
+        <v>110.677</v>
+      </c>
+      <c r="GI14" s="14" t="n">
+        <v>120.118</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
@@ -3498,727 +5154,1375 @@
       <c r="DO15" s="14" t="n">
         <v>81.077</v>
       </c>
+      <c r="DP15" s="14" t="n">
+        <v>75.013</v>
+      </c>
+      <c r="DQ15" s="14" t="n">
+        <v>86.1</v>
+      </c>
+      <c r="DR15" s="14" t="n">
+        <v>92.763</v>
+      </c>
+      <c r="DS15" s="14" t="n">
+        <v>93.747</v>
+      </c>
+      <c r="DT15" s="14" t="n">
+        <v>76.663</v>
+      </c>
+      <c r="DU15" s="14" t="n">
+        <v>91.259</v>
+      </c>
+      <c r="DV15" s="14" t="n">
+        <v>95.106</v>
+      </c>
+      <c r="DW15" s="14" t="n">
+        <v>89.822</v>
+      </c>
+      <c r="DX15" s="14" t="n">
+        <v>91.911</v>
+      </c>
+      <c r="DY15" s="14" t="n">
+        <v>100.304</v>
+      </c>
+      <c r="DZ15" s="14" t="n">
+        <v>83.229</v>
+      </c>
+      <c r="EA15" s="14" t="n">
+        <v>85.335</v>
+      </c>
+      <c r="EB15" s="14" t="n">
+        <v>79.794</v>
+      </c>
+      <c r="EC15" s="14" t="n">
+        <v>92.42</v>
+      </c>
+      <c r="ED15" s="14" t="n">
+        <v>95.284</v>
+      </c>
+      <c r="EE15" s="14" t="n">
+        <v>91.122</v>
+      </c>
+      <c r="EF15" s="14" t="n">
+        <v>76.035</v>
+      </c>
+      <c r="EG15" s="14" t="n">
+        <v>88.927</v>
+      </c>
+      <c r="EH15" s="14" t="n">
+        <v>91.91</v>
+      </c>
+      <c r="EI15" s="14" t="n">
+        <v>96.813</v>
+      </c>
+      <c r="EJ15" s="14" t="n">
+        <v>92.214</v>
+      </c>
+      <c r="EK15" s="14" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="EL15" s="14" t="n">
+        <v>89.412</v>
+      </c>
+      <c r="EM15" s="14" t="n">
+        <v>88.667</v>
+      </c>
+      <c r="EN15" s="14" t="n">
+        <v>79.292</v>
+      </c>
+      <c r="EO15" s="14" t="n">
+        <v>88.652</v>
+      </c>
+      <c r="EP15" s="14" t="n">
+        <v>97.127</v>
+      </c>
+      <c r="EQ15" s="14" t="n">
+        <v>91.314</v>
+      </c>
+      <c r="ER15" s="14" t="n">
+        <v>77.775</v>
+      </c>
+      <c r="ES15" s="14" t="n">
+        <v>88.339</v>
+      </c>
+      <c r="ET15" s="14" t="n">
+        <v>95.364</v>
+      </c>
+      <c r="EU15" s="14" t="n">
+        <v>97.479</v>
+      </c>
+      <c r="EV15" s="14" t="n">
+        <v>101.404</v>
+      </c>
+      <c r="EW15" s="14" t="n">
+        <v>94.702</v>
+      </c>
+      <c r="EX15" s="14" t="n">
+        <v>91.243</v>
+      </c>
+      <c r="EY15" s="14" t="n">
+        <v>93.001</v>
+      </c>
+      <c r="EZ15" s="14" t="n">
+        <v>82.449</v>
+      </c>
+      <c r="FA15" s="14" t="n">
+        <v>92.152</v>
+      </c>
+      <c r="FB15" s="14" t="n">
+        <v>96.813</v>
+      </c>
+      <c r="FC15" s="14" t="n">
+        <v>91.399</v>
+      </c>
+      <c r="FD15" s="14" t="n">
+        <v>83.649</v>
+      </c>
+      <c r="FE15" s="14" t="n">
+        <v>93.941</v>
+      </c>
+      <c r="FF15" s="14" t="n">
+        <v>100.227</v>
+      </c>
+      <c r="FG15" s="14" t="n">
+        <v>107.792</v>
+      </c>
+      <c r="FH15" s="14" t="n">
+        <v>94.233</v>
+      </c>
+      <c r="FI15" s="14" t="n">
+        <v>109.012</v>
+      </c>
+      <c r="FJ15" s="14" t="n">
+        <v>94.354</v>
+      </c>
+      <c r="FK15" s="14" t="n">
+        <v>91.241</v>
+      </c>
+      <c r="FL15" s="14" t="n">
+        <v>85.943</v>
+      </c>
+      <c r="FM15" s="14" t="n">
+        <v>99.945</v>
+      </c>
+      <c r="FN15" s="14" t="n">
+        <v>99.913</v>
+      </c>
+      <c r="FO15" s="14" t="n">
+        <v>104.642</v>
+      </c>
+      <c r="FP15" s="14" t="n">
+        <v>83.365</v>
+      </c>
+      <c r="FQ15" s="14" t="n">
+        <v>94.58</v>
+      </c>
+      <c r="FR15" s="14" t="n">
+        <v>99.919</v>
+      </c>
+      <c r="FS15" s="14" t="n">
+        <v>103.94</v>
+      </c>
+      <c r="FT15" s="14" t="n">
+        <v>100.729</v>
+      </c>
+      <c r="FU15" s="14" t="n">
+        <v>109.319</v>
+      </c>
+      <c r="FV15" s="14" t="n">
+        <v>99.206</v>
+      </c>
+      <c r="FW15" s="14" t="n">
+        <v>94.264</v>
+      </c>
+      <c r="FX15" s="14" t="n">
+        <v>95.51</v>
+      </c>
+      <c r="FY15" s="14" t="n">
+        <v>111.784</v>
+      </c>
+      <c r="FZ15" s="14" t="n">
+        <v>105.376</v>
+      </c>
+      <c r="GA15" s="14" t="n">
+        <v>97.951</v>
+      </c>
+      <c r="GB15" s="14" t="n">
+        <v>72.827</v>
+      </c>
+      <c r="GC15" s="14" t="n">
+        <v>98.052</v>
+      </c>
+      <c r="GD15" s="14" t="n">
+        <v>102.121</v>
+      </c>
+      <c r="GE15" s="14" t="n">
+        <v>98.358</v>
+      </c>
+      <c r="GF15" s="14" t="n">
+        <v>97.137</v>
+      </c>
+      <c r="GG15" s="14" t="n">
+        <v>103.952</v>
+      </c>
+      <c r="GH15" s="14" t="n">
+        <v>88.288</v>
+      </c>
+      <c r="GI15" s="14" t="n">
+        <v>87.372</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>07 Castilla y León</t>
+          <t>08 Castilla - La Mancha</t>
         </is>
       </c>
       <c r="B16" s="14" t="n">
-        <v>123.841</v>
+        <v>118.406</v>
       </c>
       <c r="C16" s="14" t="n">
-        <v>116.058</v>
+        <v>116.633</v>
       </c>
       <c r="D16" s="14" t="n">
-        <v>81.756</v>
+        <v>90.928</v>
       </c>
       <c r="E16" s="14" t="n">
-        <v>114.605</v>
+        <v>114.061</v>
       </c>
       <c r="F16" s="14" t="n">
-        <v>109.152</v>
+        <v>107.852</v>
       </c>
       <c r="G16" s="14" t="n">
-        <v>110.923</v>
+        <v>100.188</v>
       </c>
       <c r="H16" s="14" t="n">
-        <v>103.18</v>
+        <v>92.686</v>
       </c>
       <c r="I16" s="14" t="n">
-        <v>119.416</v>
+        <v>107.999</v>
       </c>
       <c r="J16" s="14" t="n">
-        <v>104.434</v>
+        <v>100.949</v>
       </c>
       <c r="K16" s="14" t="n">
-        <v>107.686</v>
+        <v>104.838</v>
       </c>
       <c r="L16" s="14" t="n">
-        <v>86.81</v>
+        <v>100.279</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>105.023</v>
+        <v>107.58</v>
       </c>
       <c r="N16" s="14" t="n">
-        <v>115.567</v>
+        <v>117.96</v>
       </c>
       <c r="O16" s="14" t="n">
-        <v>103.003</v>
+        <v>110.36</v>
       </c>
       <c r="P16" s="14" t="n">
-        <v>78.768</v>
+        <v>91.124</v>
       </c>
       <c r="Q16" s="14" t="n">
-        <v>104.685</v>
+        <v>114.581</v>
       </c>
       <c r="R16" s="14" t="n">
-        <v>100.157</v>
+        <v>102.901</v>
       </c>
       <c r="S16" s="14" t="n">
-        <v>107.288</v>
+        <v>100.072</v>
       </c>
       <c r="T16" s="14" t="n">
-        <v>110.367</v>
+        <v>102.133</v>
       </c>
       <c r="U16" s="14" t="n">
-        <v>112.32</v>
+        <v>98.098</v>
       </c>
       <c r="V16" s="14" t="n">
-        <v>112.112</v>
+        <v>108.98</v>
       </c>
       <c r="W16" s="14" t="n">
-        <v>105.212</v>
+        <v>100.941</v>
       </c>
       <c r="X16" s="14" t="n">
-        <v>90.062</v>
+        <v>98.916</v>
       </c>
       <c r="Y16" s="14" t="n">
-        <v>116.211</v>
+        <v>112.066</v>
       </c>
       <c r="Z16" s="14" t="n">
-        <v>102.073</v>
+        <v>111.328</v>
       </c>
       <c r="AA16" s="14" t="n">
-        <v>98.199</v>
+        <v>111.703</v>
       </c>
       <c r="AB16" s="14" t="n">
-        <v>72.094</v>
+        <v>93.761</v>
       </c>
       <c r="AC16" s="14" t="n">
-        <v>92.962</v>
+        <v>110.345</v>
       </c>
       <c r="AD16" s="14" t="n">
-        <v>101.659</v>
+        <v>97.344</v>
       </c>
       <c r="AE16" s="14" t="n">
-        <v>108.371</v>
+        <v>106.539</v>
       </c>
       <c r="AF16" s="14" t="n">
-        <v>92.494</v>
+        <v>99.915</v>
       </c>
       <c r="AG16" s="14" t="n">
-        <v>114.076</v>
+        <v>116.544</v>
       </c>
       <c r="AH16" s="14" t="n">
-        <v>99.746</v>
+        <v>101.827</v>
       </c>
       <c r="AI16" s="14" t="n">
-        <v>107.006</v>
+        <v>100.446</v>
       </c>
       <c r="AJ16" s="14" t="n">
-        <v>95.029</v>
+        <v>100.219</v>
       </c>
       <c r="AK16" s="14" t="n">
-        <v>110.263</v>
+        <v>113.744</v>
       </c>
       <c r="AL16" s="14" t="n">
-        <v>95.172</v>
+        <v>107.071</v>
       </c>
       <c r="AM16" s="14" t="n">
-        <v>100.513</v>
+        <v>108.472</v>
       </c>
       <c r="AN16" s="14" t="n">
-        <v>75.348</v>
+        <v>93.238</v>
       </c>
       <c r="AO16" s="14" t="n">
-        <v>92.711</v>
+        <v>105.944</v>
       </c>
       <c r="AP16" s="14" t="n">
-        <v>99.604</v>
+        <v>104.608</v>
       </c>
       <c r="AQ16" s="14" t="n">
-        <v>101.026</v>
+        <v>105.584</v>
       </c>
       <c r="AR16" s="14" t="n">
-        <v>96.107</v>
+        <v>105.263</v>
       </c>
       <c r="AS16" s="14" t="n">
-        <v>102.806</v>
+        <v>109.984</v>
       </c>
       <c r="AT16" s="14" t="n">
-        <v>94.794</v>
+        <v>97.578</v>
       </c>
       <c r="AU16" s="14" t="n">
-        <v>95.343</v>
+        <v>97.494</v>
       </c>
       <c r="AV16" s="14" t="n">
-        <v>98.681</v>
+        <v>99.984</v>
       </c>
       <c r="AW16" s="14" t="n">
-        <v>108.067</v>
+        <v>113.745</v>
       </c>
       <c r="AX16" s="14" t="n">
-        <v>93.031</v>
+        <v>105.575</v>
       </c>
       <c r="AY16" s="14" t="n">
-        <v>99.51</v>
+        <v>104.757</v>
       </c>
       <c r="AZ16" s="14" t="n">
-        <v>77.84</v>
+        <v>89.529</v>
       </c>
       <c r="BA16" s="14" t="n">
-        <v>97.762</v>
+        <v>106.916</v>
       </c>
       <c r="BB16" s="14" t="n">
-        <v>100.232</v>
+        <v>92.992</v>
       </c>
       <c r="BC16" s="14" t="n">
-        <v>97.658</v>
+        <v>94.435</v>
       </c>
       <c r="BD16" s="14" t="n">
-        <v>95.058</v>
+        <v>97.551</v>
       </c>
       <c r="BE16" s="14" t="n">
-        <v>114.412</v>
+        <v>107.848</v>
       </c>
       <c r="BF16" s="14" t="n">
-        <v>114.564</v>
+        <v>93.564</v>
       </c>
       <c r="BG16" s="14" t="n">
-        <v>103.185</v>
+        <v>93.103</v>
       </c>
       <c r="BH16" s="14" t="n">
-        <v>102.745</v>
+        <v>95.589</v>
       </c>
       <c r="BI16" s="14" t="n">
-        <v>111.745</v>
+        <v>100.151</v>
       </c>
       <c r="BJ16" s="14" t="n">
-        <v>111.578</v>
+        <v>107.833</v>
       </c>
       <c r="BK16" s="14" t="n">
-        <v>101.666</v>
+        <v>103.717</v>
       </c>
       <c r="BL16" s="14" t="n">
-        <v>72.5</v>
+        <v>89.538</v>
       </c>
       <c r="BM16" s="14" t="n">
-        <v>106.078</v>
+        <v>105.286</v>
       </c>
       <c r="BN16" s="14" t="n">
-        <v>95.762</v>
+        <v>88.742</v>
       </c>
       <c r="BO16" s="14" t="n">
-        <v>78.223</v>
+        <v>82.68</v>
       </c>
       <c r="BP16" s="14" t="n">
-        <v>60.624</v>
+        <v>71.28</v>
       </c>
       <c r="BQ16" s="14" t="n">
-        <v>91.468</v>
+        <v>99.09</v>
       </c>
       <c r="BR16" s="14" t="n">
-        <v>104.615</v>
+        <v>95.236</v>
       </c>
       <c r="BS16" s="14" t="n">
-        <v>104.152</v>
+        <v>99.303</v>
       </c>
       <c r="BT16" s="14" t="n">
-        <v>92.052</v>
+        <v>95.906</v>
       </c>
       <c r="BU16" s="14" t="n">
-        <v>110.715</v>
+        <v>107.411</v>
       </c>
       <c r="BV16" s="14" t="n">
-        <v>110.167</v>
+        <v>114.946</v>
       </c>
       <c r="BW16" s="14" t="n">
-        <v>102.854</v>
+        <v>104.125</v>
       </c>
       <c r="BX16" s="14" t="n">
-        <v>81.454</v>
+        <v>90.192</v>
       </c>
       <c r="BY16" s="14" t="n">
-        <v>106.947</v>
+        <v>111.96</v>
       </c>
       <c r="BZ16" s="14" t="n">
-        <v>107.797</v>
+        <v>101.434</v>
       </c>
       <c r="CA16" s="14" t="n">
-        <v>116.868</v>
+        <v>104.959</v>
       </c>
       <c r="CB16" s="14" t="n">
-        <v>101.869</v>
+        <v>99.487</v>
       </c>
       <c r="CC16" s="14" t="n">
-        <v>112.472</v>
+        <v>105.14</v>
       </c>
       <c r="CD16" s="14" t="n">
-        <v>107.402</v>
+        <v>100.256</v>
       </c>
       <c r="CE16" s="14" t="n">
-        <v>105.412</v>
+        <v>106.379</v>
       </c>
       <c r="CF16" s="14" t="n">
-        <v>85.743</v>
+        <v>91.415</v>
       </c>
       <c r="CG16" s="14" t="n">
-        <v>109.142</v>
+        <v>105.826</v>
       </c>
       <c r="CH16" s="14" t="n">
-        <v>116.471</v>
+        <v>111.345</v>
       </c>
       <c r="CI16" s="14" t="n">
-        <v>95.266</v>
+        <v>98.096</v>
       </c>
       <c r="CJ16" s="14" t="n">
-        <v>84.62</v>
+        <v>86.855</v>
       </c>
       <c r="CK16" s="14" t="n">
-        <v>112.415</v>
+        <v>104.268</v>
       </c>
       <c r="CL16" s="14" t="n">
-        <v>108.726</v>
+        <v>99.072</v>
       </c>
       <c r="CM16" s="14" t="n">
-        <v>118.035</v>
+        <v>103.509</v>
       </c>
       <c r="CN16" s="14" t="n">
-        <v>111.173</v>
+        <v>104.212</v>
       </c>
       <c r="CO16" s="14" t="n">
-        <v>117.702</v>
+        <v>103.294</v>
       </c>
       <c r="CP16" s="14" t="n">
-        <v>106.71</v>
+        <v>93.901</v>
       </c>
       <c r="CQ16" s="14" t="n">
-        <v>101.664</v>
+        <v>100.629</v>
       </c>
       <c r="CR16" s="14" t="n">
-        <v>95.402</v>
+        <v>95.009</v>
       </c>
       <c r="CS16" s="14" t="n">
-        <v>114.565</v>
+        <v>103.401</v>
       </c>
       <c r="CT16" s="14" t="n">
-        <v>111.162</v>
+        <v>106.511</v>
       </c>
       <c r="CU16" s="14" t="n">
-        <v>105.252</v>
+        <v>100.725</v>
       </c>
       <c r="CV16" s="14" t="n">
-        <v>75.518</v>
+        <v>90.089</v>
       </c>
       <c r="CW16" s="14" t="n">
-        <v>102.56</v>
+        <v>104.078</v>
       </c>
       <c r="CX16" s="14" t="n">
-        <v>111.544</v>
+        <v>104.114</v>
       </c>
       <c r="CY16" s="14" t="n">
-        <v>114.932</v>
+        <v>101.388</v>
       </c>
       <c r="CZ16" s="14" t="n">
-        <v>92.975</v>
+        <v>98.167</v>
       </c>
       <c r="DA16" s="14" t="n">
-        <v>117.489</v>
+        <v>108.057</v>
       </c>
       <c r="DB16" s="14" t="n">
-        <v>105.919</v>
+        <v>96.456</v>
       </c>
       <c r="DC16" s="14" t="n">
-        <v>107.297</v>
+        <v>95.415</v>
       </c>
       <c r="DD16" s="14" t="n">
-        <v>98.664</v>
+        <v>88.223</v>
       </c>
       <c r="DE16" s="14" t="n">
-        <v>115.426</v>
+        <v>105.048</v>
       </c>
       <c r="DF16" s="14" t="n">
-        <v>110.73</v>
+        <v>100.306</v>
       </c>
       <c r="DG16" s="14" t="n">
-        <v>111.657</v>
+        <v>102.685</v>
       </c>
       <c r="DH16" s="14" t="n">
-        <v>82.079</v>
+        <v>89.176</v>
       </c>
       <c r="DI16" s="14" t="n">
-        <v>105.112</v>
+        <v>103.004</v>
       </c>
       <c r="DJ16" s="14" t="n">
-        <v>108.634</v>
+        <v>104.401</v>
       </c>
       <c r="DK16" s="14" t="n">
-        <v>114.801</v>
+        <v>94.929</v>
       </c>
       <c r="DL16" s="14" t="n">
-        <v>122.587</v>
+        <v>102.326</v>
       </c>
       <c r="DM16" s="14" t="n">
-        <v>125.671</v>
+        <v>101.791</v>
       </c>
       <c r="DN16" s="14" t="n">
-        <v>115.174</v>
+        <v>98.168</v>
       </c>
       <c r="DO16" s="14" t="n">
-        <v>103.069</v>
+        <v>92.371</v>
+      </c>
+      <c r="DP16" s="14" t="n">
+        <v>88.802</v>
+      </c>
+      <c r="DQ16" s="14" t="n">
+        <v>100.645</v>
+      </c>
+      <c r="DR16" s="14" t="n">
+        <v>103.06</v>
+      </c>
+      <c r="DS16" s="14" t="n">
+        <v>107.786</v>
+      </c>
+      <c r="DT16" s="14" t="n">
+        <v>92.57</v>
+      </c>
+      <c r="DU16" s="14" t="n">
+        <v>115.313</v>
+      </c>
+      <c r="DV16" s="14" t="n">
+        <v>104.993</v>
+      </c>
+      <c r="DW16" s="14" t="n">
+        <v>98.448</v>
+      </c>
+      <c r="DX16" s="14" t="n">
+        <v>97.203</v>
+      </c>
+      <c r="DY16" s="14" t="n">
+        <v>101.383</v>
+      </c>
+      <c r="DZ16" s="14" t="n">
+        <v>93.519</v>
+      </c>
+      <c r="EA16" s="14" t="n">
+        <v>89.432</v>
+      </c>
+      <c r="EB16" s="14" t="n">
+        <v>92.105</v>
+      </c>
+      <c r="EC16" s="14" t="n">
+        <v>94.757</v>
+      </c>
+      <c r="ED16" s="14" t="n">
+        <v>102.544</v>
+      </c>
+      <c r="EE16" s="14" t="n">
+        <v>102.945</v>
+      </c>
+      <c r="EF16" s="14" t="n">
+        <v>85.473</v>
+      </c>
+      <c r="EG16" s="14" t="n">
+        <v>107.065</v>
+      </c>
+      <c r="EH16" s="14" t="n">
+        <v>91.811</v>
+      </c>
+      <c r="EI16" s="14" t="n">
+        <v>99.156</v>
+      </c>
+      <c r="EJ16" s="14" t="n">
+        <v>91.278</v>
+      </c>
+      <c r="EK16" s="14" t="n">
+        <v>94.713</v>
+      </c>
+      <c r="EL16" s="14" t="n">
+        <v>89.722</v>
+      </c>
+      <c r="EM16" s="14" t="n">
+        <v>92.473</v>
+      </c>
+      <c r="EN16" s="14" t="n">
+        <v>86.842</v>
+      </c>
+      <c r="EO16" s="14" t="n">
+        <v>97.143</v>
+      </c>
+      <c r="EP16" s="14" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="EQ16" s="14" t="n">
+        <v>102.202</v>
+      </c>
+      <c r="ER16" s="14" t="n">
+        <v>84.792</v>
+      </c>
+      <c r="ES16" s="14" t="n">
+        <v>108.146</v>
+      </c>
+      <c r="ET16" s="14" t="n">
+        <v>90.972</v>
+      </c>
+      <c r="EU16" s="14" t="n">
+        <v>92.977</v>
+      </c>
+      <c r="EV16" s="14" t="n">
+        <v>94.587</v>
+      </c>
+      <c r="EW16" s="14" t="n">
+        <v>92.225</v>
+      </c>
+      <c r="EX16" s="14" t="n">
+        <v>88.264</v>
+      </c>
+      <c r="EY16" s="14" t="n">
+        <v>91.709</v>
+      </c>
+      <c r="EZ16" s="14" t="n">
+        <v>88.629</v>
+      </c>
+      <c r="FA16" s="14" t="n">
+        <v>100.471</v>
+      </c>
+      <c r="FB16" s="14" t="n">
+        <v>100.017</v>
+      </c>
+      <c r="FC16" s="14" t="n">
+        <v>94.741</v>
+      </c>
+      <c r="FD16" s="14" t="n">
+        <v>89.584</v>
+      </c>
+      <c r="FE16" s="14" t="n">
+        <v>107.562</v>
+      </c>
+      <c r="FF16" s="14" t="n">
+        <v>98.558</v>
+      </c>
+      <c r="FG16" s="14" t="n">
+        <v>99.96</v>
+      </c>
+      <c r="FH16" s="14" t="n">
+        <v>91.317</v>
+      </c>
+      <c r="FI16" s="14" t="n">
+        <v>98.276</v>
+      </c>
+      <c r="FJ16" s="14" t="n">
+        <v>98.708</v>
+      </c>
+      <c r="FK16" s="14" t="n">
+        <v>96.787</v>
+      </c>
+      <c r="FL16" s="14" t="n">
+        <v>98.958</v>
+      </c>
+      <c r="FM16" s="14" t="n">
+        <v>108.039</v>
+      </c>
+      <c r="FN16" s="14" t="n">
+        <v>105.159</v>
+      </c>
+      <c r="FO16" s="14" t="n">
+        <v>106.779</v>
+      </c>
+      <c r="FP16" s="14" t="n">
+        <v>93.404</v>
+      </c>
+      <c r="FQ16" s="14" t="n">
+        <v>113.657</v>
+      </c>
+      <c r="FR16" s="14" t="n">
+        <v>115.974</v>
+      </c>
+      <c r="FS16" s="14" t="n">
+        <v>107.882</v>
+      </c>
+      <c r="FT16" s="14" t="n">
+        <v>105.514</v>
+      </c>
+      <c r="FU16" s="14" t="n">
+        <v>120.501</v>
+      </c>
+      <c r="FV16" s="14" t="n">
+        <v>107.732</v>
+      </c>
+      <c r="FW16" s="14" t="n">
+        <v>102.65</v>
+      </c>
+      <c r="FX16" s="14" t="n">
+        <v>108.359</v>
+      </c>
+      <c r="FY16" s="14" t="n">
+        <v>121.347</v>
+      </c>
+      <c r="FZ16" s="14" t="n">
+        <v>116.253</v>
+      </c>
+      <c r="GA16" s="14" t="n">
+        <v>111.669</v>
+      </c>
+      <c r="GB16" s="14" t="n">
+        <v>96.772</v>
+      </c>
+      <c r="GC16" s="14" t="n">
+        <v>118.927</v>
+      </c>
+      <c r="GD16" s="14" t="n">
+        <v>116.763</v>
+      </c>
+      <c r="GE16" s="14" t="n">
+        <v>104.539</v>
+      </c>
+      <c r="GF16" s="14" t="n">
+        <v>104.284</v>
+      </c>
+      <c r="GG16" s="14" t="n">
+        <v>110.778</v>
+      </c>
+      <c r="GH16" s="14" t="n">
+        <v>96.39</v>
+      </c>
+      <c r="GI16" s="14" t="n">
+        <v>92.442</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>08 Castilla - La Mancha</t>
+          <t>07 Castilla y León</t>
         </is>
       </c>
       <c r="B17" s="14" t="n">
-        <v>118.406</v>
+        <v>123.841</v>
       </c>
       <c r="C17" s="14" t="n">
-        <v>116.633</v>
+        <v>116.058</v>
       </c>
       <c r="D17" s="14" t="n">
-        <v>90.928</v>
+        <v>81.756</v>
       </c>
       <c r="E17" s="14" t="n">
-        <v>114.061</v>
+        <v>114.605</v>
       </c>
       <c r="F17" s="14" t="n">
-        <v>107.852</v>
+        <v>109.152</v>
       </c>
       <c r="G17" s="14" t="n">
-        <v>100.188</v>
+        <v>110.923</v>
       </c>
       <c r="H17" s="14" t="n">
-        <v>92.686</v>
+        <v>103.18</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>107.999</v>
+        <v>119.416</v>
       </c>
       <c r="J17" s="14" t="n">
-        <v>100.949</v>
+        <v>104.434</v>
       </c>
       <c r="K17" s="14" t="n">
-        <v>104.838</v>
+        <v>107.686</v>
       </c>
       <c r="L17" s="14" t="n">
-        <v>100.279</v>
+        <v>86.81</v>
       </c>
       <c r="M17" s="14" t="n">
-        <v>107.58</v>
+        <v>105.023</v>
       </c>
       <c r="N17" s="14" t="n">
-        <v>117.96</v>
+        <v>115.567</v>
       </c>
       <c r="O17" s="14" t="n">
-        <v>110.36</v>
+        <v>103.003</v>
       </c>
       <c r="P17" s="14" t="n">
-        <v>91.124</v>
+        <v>78.768</v>
       </c>
       <c r="Q17" s="14" t="n">
-        <v>114.581</v>
+        <v>104.685</v>
       </c>
       <c r="R17" s="14" t="n">
-        <v>102.901</v>
+        <v>100.157</v>
       </c>
       <c r="S17" s="14" t="n">
-        <v>100.072</v>
+        <v>107.288</v>
       </c>
       <c r="T17" s="14" t="n">
-        <v>102.133</v>
+        <v>110.367</v>
       </c>
       <c r="U17" s="14" t="n">
-        <v>98.098</v>
+        <v>112.32</v>
       </c>
       <c r="V17" s="14" t="n">
-        <v>108.98</v>
+        <v>112.112</v>
       </c>
       <c r="W17" s="14" t="n">
-        <v>100.941</v>
+        <v>105.212</v>
       </c>
       <c r="X17" s="14" t="n">
-        <v>98.916</v>
+        <v>90.062</v>
       </c>
       <c r="Y17" s="14" t="n">
-        <v>112.066</v>
+        <v>116.211</v>
       </c>
       <c r="Z17" s="14" t="n">
-        <v>111.328</v>
+        <v>102.073</v>
       </c>
       <c r="AA17" s="14" t="n">
-        <v>111.703</v>
+        <v>98.199</v>
       </c>
       <c r="AB17" s="14" t="n">
-        <v>93.761</v>
+        <v>72.094</v>
       </c>
       <c r="AC17" s="14" t="n">
-        <v>110.345</v>
+        <v>92.962</v>
       </c>
       <c r="AD17" s="14" t="n">
-        <v>97.344</v>
+        <v>101.659</v>
       </c>
       <c r="AE17" s="14" t="n">
-        <v>106.539</v>
+        <v>108.371</v>
       </c>
       <c r="AF17" s="14" t="n">
-        <v>99.915</v>
+        <v>92.494</v>
       </c>
       <c r="AG17" s="14" t="n">
-        <v>116.544</v>
+        <v>114.076</v>
       </c>
       <c r="AH17" s="14" t="n">
-        <v>101.827</v>
+        <v>99.746</v>
       </c>
       <c r="AI17" s="14" t="n">
-        <v>100.446</v>
+        <v>107.006</v>
       </c>
       <c r="AJ17" s="14" t="n">
-        <v>100.219</v>
+        <v>95.029</v>
       </c>
       <c r="AK17" s="14" t="n">
-        <v>113.744</v>
+        <v>110.263</v>
       </c>
       <c r="AL17" s="14" t="n">
-        <v>107.071</v>
+        <v>95.172</v>
       </c>
       <c r="AM17" s="14" t="n">
-        <v>108.472</v>
+        <v>100.513</v>
       </c>
       <c r="AN17" s="14" t="n">
-        <v>93.238</v>
+        <v>75.348</v>
       </c>
       <c r="AO17" s="14" t="n">
-        <v>105.944</v>
+        <v>92.711</v>
       </c>
       <c r="AP17" s="14" t="n">
-        <v>104.608</v>
+        <v>99.604</v>
       </c>
       <c r="AQ17" s="14" t="n">
-        <v>105.584</v>
+        <v>101.026</v>
       </c>
       <c r="AR17" s="14" t="n">
-        <v>105.263</v>
+        <v>96.107</v>
       </c>
       <c r="AS17" s="14" t="n">
-        <v>109.984</v>
+        <v>102.806</v>
       </c>
       <c r="AT17" s="14" t="n">
-        <v>97.578</v>
+        <v>94.794</v>
       </c>
       <c r="AU17" s="14" t="n">
-        <v>97.494</v>
+        <v>95.343</v>
       </c>
       <c r="AV17" s="14" t="n">
-        <v>99.984</v>
+        <v>98.681</v>
       </c>
       <c r="AW17" s="14" t="n">
-        <v>113.745</v>
+        <v>108.067</v>
       </c>
       <c r="AX17" s="14" t="n">
-        <v>105.575</v>
+        <v>93.031</v>
       </c>
       <c r="AY17" s="14" t="n">
-        <v>104.757</v>
+        <v>99.51</v>
       </c>
       <c r="AZ17" s="14" t="n">
-        <v>89.529</v>
+        <v>77.84</v>
       </c>
       <c r="BA17" s="14" t="n">
-        <v>106.916</v>
+        <v>97.762</v>
       </c>
       <c r="BB17" s="14" t="n">
-        <v>92.992</v>
+        <v>100.232</v>
       </c>
       <c r="BC17" s="14" t="n">
-        <v>94.435</v>
+        <v>97.658</v>
       </c>
       <c r="BD17" s="14" t="n">
-        <v>97.551</v>
+        <v>95.058</v>
       </c>
       <c r="BE17" s="14" t="n">
-        <v>107.848</v>
+        <v>114.412</v>
       </c>
       <c r="BF17" s="14" t="n">
-        <v>93.564</v>
+        <v>114.564</v>
       </c>
       <c r="BG17" s="14" t="n">
-        <v>93.103</v>
+        <v>103.185</v>
       </c>
       <c r="BH17" s="14" t="n">
-        <v>95.589</v>
+        <v>102.745</v>
       </c>
       <c r="BI17" s="14" t="n">
-        <v>100.151</v>
+        <v>111.745</v>
       </c>
       <c r="BJ17" s="14" t="n">
-        <v>107.833</v>
+        <v>111.578</v>
       </c>
       <c r="BK17" s="14" t="n">
-        <v>103.717</v>
+        <v>101.666</v>
       </c>
       <c r="BL17" s="14" t="n">
-        <v>89.538</v>
+        <v>72.5</v>
       </c>
       <c r="BM17" s="14" t="n">
-        <v>105.286</v>
+        <v>106.078</v>
       </c>
       <c r="BN17" s="14" t="n">
-        <v>88.742</v>
+        <v>95.762</v>
       </c>
       <c r="BO17" s="14" t="n">
-        <v>82.68</v>
+        <v>78.223</v>
       </c>
       <c r="BP17" s="14" t="n">
-        <v>71.28</v>
+        <v>60.624</v>
       </c>
       <c r="BQ17" s="14" t="n">
-        <v>99.09</v>
+        <v>91.468</v>
       </c>
       <c r="BR17" s="14" t="n">
-        <v>95.236</v>
+        <v>104.615</v>
       </c>
       <c r="BS17" s="14" t="n">
-        <v>99.303</v>
+        <v>104.152</v>
       </c>
       <c r="BT17" s="14" t="n">
-        <v>95.906</v>
+        <v>92.052</v>
       </c>
       <c r="BU17" s="14" t="n">
-        <v>107.411</v>
+        <v>110.715</v>
       </c>
       <c r="BV17" s="14" t="n">
-        <v>114.946</v>
+        <v>110.167</v>
       </c>
       <c r="BW17" s="14" t="n">
-        <v>104.125</v>
+        <v>102.854</v>
       </c>
       <c r="BX17" s="14" t="n">
-        <v>90.192</v>
+        <v>81.454</v>
       </c>
       <c r="BY17" s="14" t="n">
-        <v>111.96</v>
+        <v>106.947</v>
       </c>
       <c r="BZ17" s="14" t="n">
-        <v>101.434</v>
+        <v>107.797</v>
       </c>
       <c r="CA17" s="14" t="n">
-        <v>104.959</v>
+        <v>116.868</v>
       </c>
       <c r="CB17" s="14" t="n">
-        <v>99.487</v>
+        <v>101.869</v>
       </c>
       <c r="CC17" s="14" t="n">
-        <v>105.14</v>
+        <v>112.472</v>
       </c>
       <c r="CD17" s="14" t="n">
-        <v>100.256</v>
+        <v>107.402</v>
       </c>
       <c r="CE17" s="14" t="n">
-        <v>106.379</v>
+        <v>105.412</v>
       </c>
       <c r="CF17" s="14" t="n">
-        <v>91.415</v>
+        <v>85.743</v>
       </c>
       <c r="CG17" s="14" t="n">
-        <v>105.826</v>
+        <v>109.142</v>
       </c>
       <c r="CH17" s="14" t="n">
-        <v>111.345</v>
+        <v>116.471</v>
       </c>
       <c r="CI17" s="14" t="n">
-        <v>98.096</v>
+        <v>95.266</v>
       </c>
       <c r="CJ17" s="14" t="n">
-        <v>86.855</v>
+        <v>84.62</v>
       </c>
       <c r="CK17" s="14" t="n">
-        <v>104.268</v>
+        <v>112.415</v>
       </c>
       <c r="CL17" s="14" t="n">
-        <v>99.072</v>
+        <v>108.726</v>
       </c>
       <c r="CM17" s="14" t="n">
-        <v>103.509</v>
+        <v>118.035</v>
       </c>
       <c r="CN17" s="14" t="n">
-        <v>104.212</v>
+        <v>111.173</v>
       </c>
       <c r="CO17" s="14" t="n">
-        <v>103.294</v>
+        <v>117.702</v>
       </c>
       <c r="CP17" s="14" t="n">
-        <v>93.901</v>
+        <v>106.71</v>
       </c>
       <c r="CQ17" s="14" t="n">
-        <v>100.629</v>
+        <v>101.664</v>
       </c>
       <c r="CR17" s="14" t="n">
-        <v>95.009</v>
+        <v>95.402</v>
       </c>
       <c r="CS17" s="14" t="n">
-        <v>103.401</v>
+        <v>114.565</v>
       </c>
       <c r="CT17" s="14" t="n">
-        <v>106.511</v>
+        <v>111.162</v>
       </c>
       <c r="CU17" s="14" t="n">
-        <v>100.725</v>
+        <v>105.252</v>
       </c>
       <c r="CV17" s="14" t="n">
-        <v>90.089</v>
+        <v>75.518</v>
       </c>
       <c r="CW17" s="14" t="n">
-        <v>104.078</v>
+        <v>102.56</v>
       </c>
       <c r="CX17" s="14" t="n">
-        <v>104.114</v>
+        <v>111.544</v>
       </c>
       <c r="CY17" s="14" t="n">
-        <v>101.388</v>
+        <v>114.932</v>
       </c>
       <c r="CZ17" s="14" t="n">
-        <v>98.167</v>
+        <v>92.975</v>
       </c>
       <c r="DA17" s="14" t="n">
-        <v>108.057</v>
+        <v>117.489</v>
       </c>
       <c r="DB17" s="14" t="n">
-        <v>96.456</v>
+        <v>105.919</v>
       </c>
       <c r="DC17" s="14" t="n">
-        <v>95.415</v>
+        <v>107.297</v>
       </c>
       <c r="DD17" s="14" t="n">
-        <v>88.223</v>
+        <v>98.664</v>
       </c>
       <c r="DE17" s="14" t="n">
-        <v>105.048</v>
+        <v>115.426</v>
       </c>
       <c r="DF17" s="14" t="n">
-        <v>100.306</v>
+        <v>110.73</v>
       </c>
       <c r="DG17" s="14" t="n">
-        <v>102.685</v>
+        <v>111.657</v>
       </c>
       <c r="DH17" s="14" t="n">
-        <v>89.176</v>
+        <v>82.079</v>
       </c>
       <c r="DI17" s="14" t="n">
-        <v>103.004</v>
+        <v>105.112</v>
       </c>
       <c r="DJ17" s="14" t="n">
-        <v>104.401</v>
+        <v>108.634</v>
       </c>
       <c r="DK17" s="14" t="n">
-        <v>94.929</v>
+        <v>114.801</v>
       </c>
       <c r="DL17" s="14" t="n">
-        <v>102.326</v>
+        <v>122.587</v>
       </c>
       <c r="DM17" s="14" t="n">
-        <v>101.791</v>
+        <v>125.671</v>
       </c>
       <c r="DN17" s="14" t="n">
-        <v>98.168</v>
+        <v>115.174</v>
       </c>
       <c r="DO17" s="14" t="n">
-        <v>92.371</v>
+        <v>103.069</v>
+      </c>
+      <c r="DP17" s="14" t="n">
+        <v>100.506</v>
+      </c>
+      <c r="DQ17" s="14" t="n">
+        <v>117.95</v>
+      </c>
+      <c r="DR17" s="14" t="n">
+        <v>111.19</v>
+      </c>
+      <c r="DS17" s="14" t="n">
+        <v>110.626</v>
+      </c>
+      <c r="DT17" s="14" t="n">
+        <v>82.022</v>
+      </c>
+      <c r="DU17" s="14" t="n">
+        <v>120.794</v>
+      </c>
+      <c r="DV17" s="14" t="n">
+        <v>118.03</v>
+      </c>
+      <c r="DW17" s="14" t="n">
+        <v>107.387</v>
+      </c>
+      <c r="DX17" s="14" t="n">
+        <v>100.953</v>
+      </c>
+      <c r="DY17" s="14" t="n">
+        <v>113.394</v>
+      </c>
+      <c r="DZ17" s="14" t="n">
+        <v>102.067</v>
+      </c>
+      <c r="EA17" s="14" t="n">
+        <v>100.246</v>
+      </c>
+      <c r="EB17" s="14" t="n">
+        <v>97.764</v>
+      </c>
+      <c r="EC17" s="14" t="n">
+        <v>107.93</v>
+      </c>
+      <c r="ED17" s="14" t="n">
+        <v>114.307</v>
+      </c>
+      <c r="EE17" s="14" t="n">
+        <v>112.033</v>
+      </c>
+      <c r="EF17" s="14" t="n">
+        <v>84.526</v>
+      </c>
+      <c r="EG17" s="14" t="n">
+        <v>111.031</v>
+      </c>
+      <c r="EH17" s="14" t="n">
+        <v>106.427</v>
+      </c>
+      <c r="EI17" s="14" t="n">
+        <v>105.152</v>
+      </c>
+      <c r="EJ17" s="14" t="n">
+        <v>103.68</v>
+      </c>
+      <c r="EK17" s="14" t="n">
+        <v>111.028</v>
+      </c>
+      <c r="EL17" s="14" t="n">
+        <v>105.631</v>
+      </c>
+      <c r="EM17" s="14" t="n">
+        <v>105.204</v>
+      </c>
+      <c r="EN17" s="14" t="n">
+        <v>93.363</v>
+      </c>
+      <c r="EO17" s="14" t="n">
+        <v>107.997</v>
+      </c>
+      <c r="EP17" s="14" t="n">
+        <v>108.071</v>
+      </c>
+      <c r="EQ17" s="14" t="n">
+        <v>105.73</v>
+      </c>
+      <c r="ER17" s="14" t="n">
+        <v>78.439</v>
+      </c>
+      <c r="ES17" s="14" t="n">
+        <v>107.905</v>
+      </c>
+      <c r="ET17" s="14" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="EU17" s="14" t="n">
+        <v>101.087</v>
+      </c>
+      <c r="EV17" s="14" t="n">
+        <v>100.43</v>
+      </c>
+      <c r="EW17" s="14" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="EX17" s="14" t="n">
+        <v>94.733</v>
+      </c>
+      <c r="EY17" s="14" t="n">
+        <v>95.561</v>
+      </c>
+      <c r="EZ17" s="14" t="n">
+        <v>93.196</v>
+      </c>
+      <c r="FA17" s="14" t="n">
+        <v>111.888</v>
+      </c>
+      <c r="FB17" s="14" t="n">
+        <v>110.126</v>
+      </c>
+      <c r="FC17" s="14" t="n">
+        <v>99.779</v>
+      </c>
+      <c r="FD17" s="14" t="n">
+        <v>87.216</v>
+      </c>
+      <c r="FE17" s="14" t="n">
+        <v>107.055</v>
+      </c>
+      <c r="FF17" s="14" t="n">
+        <v>108.52</v>
+      </c>
+      <c r="FG17" s="14" t="n">
+        <v>113.358</v>
+      </c>
+      <c r="FH17" s="14" t="n">
+        <v>100.716</v>
+      </c>
+      <c r="FI17" s="14" t="n">
+        <v>115.016</v>
+      </c>
+      <c r="FJ17" s="14" t="n">
+        <v>115.516</v>
+      </c>
+      <c r="FK17" s="14" t="n">
+        <v>113.324</v>
+      </c>
+      <c r="FL17" s="14" t="n">
+        <v>104.801</v>
+      </c>
+      <c r="FM17" s="14" t="n">
+        <v>127.792</v>
+      </c>
+      <c r="FN17" s="14" t="n">
+        <v>120.585</v>
+      </c>
+      <c r="FO17" s="14" t="n">
+        <v>120.981</v>
+      </c>
+      <c r="FP17" s="14" t="n">
+        <v>93.865</v>
+      </c>
+      <c r="FQ17" s="14" t="n">
+        <v>115.554</v>
+      </c>
+      <c r="FR17" s="14" t="n">
+        <v>120.08</v>
+      </c>
+      <c r="FS17" s="14" t="n">
+        <v>125.235</v>
+      </c>
+      <c r="FT17" s="14" t="n">
+        <v>112.575</v>
+      </c>
+      <c r="FU17" s="14" t="n">
+        <v>133.263</v>
+      </c>
+      <c r="FV17" s="14" t="n">
+        <v>115.262</v>
+      </c>
+      <c r="FW17" s="14" t="n">
+        <v>112.664</v>
+      </c>
+      <c r="FX17" s="14" t="n">
+        <v>115.596</v>
+      </c>
+      <c r="FY17" s="14" t="n">
+        <v>128.831</v>
+      </c>
+      <c r="FZ17" s="14" t="n">
+        <v>112.639</v>
+      </c>
+      <c r="GA17" s="14" t="n">
+        <v>105.881</v>
+      </c>
+      <c r="GB17" s="14" t="n">
+        <v>82.086</v>
+      </c>
+      <c r="GC17" s="14" t="n">
+        <v>108.978</v>
+      </c>
+      <c r="GD17" s="14" t="n">
+        <v>114.188</v>
+      </c>
+      <c r="GE17" s="14" t="n">
+        <v>116.441</v>
+      </c>
+      <c r="GF17" s="14" t="n">
+        <v>116.863</v>
+      </c>
+      <c r="GG17" s="14" t="n">
+        <v>132.633</v>
+      </c>
+      <c r="GH17" s="14" t="n">
+        <v>111.513</v>
+      </c>
+      <c r="GI17" s="14" t="n">
+        <v>119.961</v>
       </c>
     </row>
     <row r="18">
@@ -4581,6 +6885,222 @@
       <c r="DO18" s="14" t="n">
         <v>90.914</v>
       </c>
+      <c r="DP18" s="14" t="n">
+        <v>89.477</v>
+      </c>
+      <c r="DQ18" s="14" t="n">
+        <v>99.144</v>
+      </c>
+      <c r="DR18" s="14" t="n">
+        <v>101.097</v>
+      </c>
+      <c r="DS18" s="14" t="n">
+        <v>99.173</v>
+      </c>
+      <c r="DT18" s="14" t="n">
+        <v>70.626</v>
+      </c>
+      <c r="DU18" s="14" t="n">
+        <v>108.119</v>
+      </c>
+      <c r="DV18" s="14" t="n">
+        <v>99.176</v>
+      </c>
+      <c r="DW18" s="14" t="n">
+        <v>97.408</v>
+      </c>
+      <c r="DX18" s="14" t="n">
+        <v>95.444</v>
+      </c>
+      <c r="DY18" s="14" t="n">
+        <v>104.455</v>
+      </c>
+      <c r="DZ18" s="14" t="n">
+        <v>94.455</v>
+      </c>
+      <c r="EA18" s="14" t="n">
+        <v>89.926</v>
+      </c>
+      <c r="EB18" s="14" t="n">
+        <v>86.227</v>
+      </c>
+      <c r="EC18" s="14" t="n">
+        <v>93.978</v>
+      </c>
+      <c r="ED18" s="14" t="n">
+        <v>103.051</v>
+      </c>
+      <c r="EE18" s="14" t="n">
+        <v>94.58</v>
+      </c>
+      <c r="EF18" s="14" t="n">
+        <v>67.041</v>
+      </c>
+      <c r="EG18" s="14" t="n">
+        <v>104.528</v>
+      </c>
+      <c r="EH18" s="14" t="n">
+        <v>93.036</v>
+      </c>
+      <c r="EI18" s="14" t="n">
+        <v>99.796</v>
+      </c>
+      <c r="EJ18" s="14" t="n">
+        <v>93.136</v>
+      </c>
+      <c r="EK18" s="14" t="n">
+        <v>99.257</v>
+      </c>
+      <c r="EL18" s="14" t="n">
+        <v>92.986</v>
+      </c>
+      <c r="EM18" s="14" t="n">
+        <v>91.87</v>
+      </c>
+      <c r="EN18" s="14" t="n">
+        <v>82.178</v>
+      </c>
+      <c r="EO18" s="14" t="n">
+        <v>92.402</v>
+      </c>
+      <c r="EP18" s="14" t="n">
+        <v>101.021</v>
+      </c>
+      <c r="EQ18" s="14" t="n">
+        <v>93.224</v>
+      </c>
+      <c r="ER18" s="14" t="n">
+        <v>69.421</v>
+      </c>
+      <c r="ES18" s="14" t="n">
+        <v>103.439</v>
+      </c>
+      <c r="ET18" s="14" t="n">
+        <v>92.69</v>
+      </c>
+      <c r="EU18" s="14" t="n">
+        <v>98.016</v>
+      </c>
+      <c r="EV18" s="14" t="n">
+        <v>94.234</v>
+      </c>
+      <c r="EW18" s="14" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="EX18" s="14" t="n">
+        <v>90.565</v>
+      </c>
+      <c r="EY18" s="14" t="n">
+        <v>93.176</v>
+      </c>
+      <c r="EZ18" s="14" t="n">
+        <v>76.983</v>
+      </c>
+      <c r="FA18" s="14" t="n">
+        <v>90.493</v>
+      </c>
+      <c r="FB18" s="14" t="n">
+        <v>99.262</v>
+      </c>
+      <c r="FC18" s="14" t="n">
+        <v>88.848</v>
+      </c>
+      <c r="FD18" s="14" t="n">
+        <v>70.761</v>
+      </c>
+      <c r="FE18" s="14" t="n">
+        <v>98.644</v>
+      </c>
+      <c r="FF18" s="14" t="n">
+        <v>97.062</v>
+      </c>
+      <c r="FG18" s="14" t="n">
+        <v>97.173</v>
+      </c>
+      <c r="FH18" s="14" t="n">
+        <v>86.885</v>
+      </c>
+      <c r="FI18" s="14" t="n">
+        <v>98.775</v>
+      </c>
+      <c r="FJ18" s="14" t="n">
+        <v>95.378</v>
+      </c>
+      <c r="FK18" s="14" t="n">
+        <v>90.639</v>
+      </c>
+      <c r="FL18" s="14" t="n">
+        <v>85.256</v>
+      </c>
+      <c r="FM18" s="14" t="n">
+        <v>96.383</v>
+      </c>
+      <c r="FN18" s="14" t="n">
+        <v>95.474</v>
+      </c>
+      <c r="FO18" s="14" t="n">
+        <v>102.531</v>
+      </c>
+      <c r="FP18" s="14" t="n">
+        <v>73.304</v>
+      </c>
+      <c r="FQ18" s="14" t="n">
+        <v>104.529</v>
+      </c>
+      <c r="FR18" s="14" t="n">
+        <v>101.434</v>
+      </c>
+      <c r="FS18" s="14" t="n">
+        <v>102.922</v>
+      </c>
+      <c r="FT18" s="14" t="n">
+        <v>90.092</v>
+      </c>
+      <c r="FU18" s="14" t="n">
+        <v>106.654</v>
+      </c>
+      <c r="FV18" s="14" t="n">
+        <v>94.007</v>
+      </c>
+      <c r="FW18" s="14" t="n">
+        <v>91.629</v>
+      </c>
+      <c r="FX18" s="14" t="n">
+        <v>91.936</v>
+      </c>
+      <c r="FY18" s="14" t="n">
+        <v>107.538</v>
+      </c>
+      <c r="FZ18" s="14" t="n">
+        <v>99.514</v>
+      </c>
+      <c r="GA18" s="14" t="n">
+        <v>99.849</v>
+      </c>
+      <c r="GB18" s="14" t="n">
+        <v>65.303</v>
+      </c>
+      <c r="GC18" s="14" t="n">
+        <v>106.869</v>
+      </c>
+      <c r="GD18" s="14" t="n">
+        <v>100.74</v>
+      </c>
+      <c r="GE18" s="14" t="n">
+        <v>99.849</v>
+      </c>
+      <c r="GF18" s="14" t="n">
+        <v>97.285</v>
+      </c>
+      <c r="GG18" s="14" t="n">
+        <v>108.206</v>
+      </c>
+      <c r="GH18" s="14" t="n">
+        <v>94.165</v>
+      </c>
+      <c r="GI18" s="14" t="n">
+        <v>84.916</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -4942,6 +7462,222 @@
       <c r="DO19" s="14" t="n">
         <v>90.54</v>
       </c>
+      <c r="DP19" s="14" t="n">
+        <v>87.012</v>
+      </c>
+      <c r="DQ19" s="14" t="n">
+        <v>95.372</v>
+      </c>
+      <c r="DR19" s="14" t="n">
+        <v>94.502</v>
+      </c>
+      <c r="DS19" s="14" t="n">
+        <v>100.096</v>
+      </c>
+      <c r="DT19" s="14" t="n">
+        <v>70.529</v>
+      </c>
+      <c r="DU19" s="14" t="n">
+        <v>106.48</v>
+      </c>
+      <c r="DV19" s="14" t="n">
+        <v>104.326</v>
+      </c>
+      <c r="DW19" s="14" t="n">
+        <v>97.024</v>
+      </c>
+      <c r="DX19" s="14" t="n">
+        <v>90.996</v>
+      </c>
+      <c r="DY19" s="14" t="n">
+        <v>97.192</v>
+      </c>
+      <c r="DZ19" s="14" t="n">
+        <v>89.763</v>
+      </c>
+      <c r="EA19" s="14" t="n">
+        <v>84.524</v>
+      </c>
+      <c r="EB19" s="14" t="n">
+        <v>81.463</v>
+      </c>
+      <c r="EC19" s="14" t="n">
+        <v>88.653</v>
+      </c>
+      <c r="ED19" s="14" t="n">
+        <v>91.756</v>
+      </c>
+      <c r="EE19" s="14" t="n">
+        <v>91.164</v>
+      </c>
+      <c r="EF19" s="14" t="n">
+        <v>64.439</v>
+      </c>
+      <c r="EG19" s="14" t="n">
+        <v>100.395</v>
+      </c>
+      <c r="EH19" s="14" t="n">
+        <v>95.841</v>
+      </c>
+      <c r="EI19" s="14" t="n">
+        <v>93.821</v>
+      </c>
+      <c r="EJ19" s="14" t="n">
+        <v>89.618</v>
+      </c>
+      <c r="EK19" s="14" t="n">
+        <v>89.441</v>
+      </c>
+      <c r="EL19" s="14" t="n">
+        <v>87.035</v>
+      </c>
+      <c r="EM19" s="14" t="n">
+        <v>81.65</v>
+      </c>
+      <c r="EN19" s="14" t="n">
+        <v>79.483</v>
+      </c>
+      <c r="EO19" s="14" t="n">
+        <v>86.857</v>
+      </c>
+      <c r="EP19" s="14" t="n">
+        <v>91.095</v>
+      </c>
+      <c r="EQ19" s="14" t="n">
+        <v>87.755</v>
+      </c>
+      <c r="ER19" s="14" t="n">
+        <v>67.187</v>
+      </c>
+      <c r="ES19" s="14" t="n">
+        <v>95.582</v>
+      </c>
+      <c r="ET19" s="14" t="n">
+        <v>89.163</v>
+      </c>
+      <c r="EU19" s="14" t="n">
+        <v>92.059</v>
+      </c>
+      <c r="EV19" s="14" t="n">
+        <v>85.076</v>
+      </c>
+      <c r="EW19" s="14" t="n">
+        <v>81.324</v>
+      </c>
+      <c r="EX19" s="14" t="n">
+        <v>80.607</v>
+      </c>
+      <c r="EY19" s="14" t="n">
+        <v>84.167</v>
+      </c>
+      <c r="EZ19" s="14" t="n">
+        <v>72.947</v>
+      </c>
+      <c r="FA19" s="14" t="n">
+        <v>85.442</v>
+      </c>
+      <c r="FB19" s="14" t="n">
+        <v>86.666</v>
+      </c>
+      <c r="FC19" s="14" t="n">
+        <v>82.748</v>
+      </c>
+      <c r="FD19" s="14" t="n">
+        <v>67.27</v>
+      </c>
+      <c r="FE19" s="14" t="n">
+        <v>91.567</v>
+      </c>
+      <c r="FF19" s="14" t="n">
+        <v>89.686</v>
+      </c>
+      <c r="FG19" s="14" t="n">
+        <v>90.16</v>
+      </c>
+      <c r="FH19" s="14" t="n">
+        <v>77.952</v>
+      </c>
+      <c r="FI19" s="14" t="n">
+        <v>89.181</v>
+      </c>
+      <c r="FJ19" s="14" t="n">
+        <v>85.545</v>
+      </c>
+      <c r="FK19" s="14" t="n">
+        <v>79.823</v>
+      </c>
+      <c r="FL19" s="14" t="n">
+        <v>79.942</v>
+      </c>
+      <c r="FM19" s="14" t="n">
+        <v>88.816</v>
+      </c>
+      <c r="FN19" s="14" t="n">
+        <v>87.278</v>
+      </c>
+      <c r="FO19" s="14" t="n">
+        <v>93.022</v>
+      </c>
+      <c r="FP19" s="14" t="n">
+        <v>68.606</v>
+      </c>
+      <c r="FQ19" s="14" t="n">
+        <v>95.115</v>
+      </c>
+      <c r="FR19" s="14" t="n">
+        <v>96.86</v>
+      </c>
+      <c r="FS19" s="14" t="n">
+        <v>95.012</v>
+      </c>
+      <c r="FT19" s="14" t="n">
+        <v>85.91</v>
+      </c>
+      <c r="FU19" s="14" t="n">
+        <v>100.988</v>
+      </c>
+      <c r="FV19" s="14" t="n">
+        <v>90.559</v>
+      </c>
+      <c r="FW19" s="14" t="n">
+        <v>83.926</v>
+      </c>
+      <c r="FX19" s="14" t="n">
+        <v>84.81</v>
+      </c>
+      <c r="FY19" s="14" t="n">
+        <v>99.579</v>
+      </c>
+      <c r="FZ19" s="14" t="n">
+        <v>91.635</v>
+      </c>
+      <c r="GA19" s="14" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="GB19" s="14" t="n">
+        <v>66.685</v>
+      </c>
+      <c r="GC19" s="14" t="n">
+        <v>100.027</v>
+      </c>
+      <c r="GD19" s="14" t="n">
+        <v>103.384</v>
+      </c>
+      <c r="GE19" s="14" t="n">
+        <v>97.454</v>
+      </c>
+      <c r="GF19" s="14" t="n">
+        <v>88.503</v>
+      </c>
+      <c r="GG19" s="14" t="n">
+        <v>100.363</v>
+      </c>
+      <c r="GH19" s="14" t="n">
+        <v>89.398</v>
+      </c>
+      <c r="GI19" s="14" t="n">
+        <v>82.237</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -5303,6 +8039,222 @@
       <c r="DO20" s="14" t="n">
         <v>77.578</v>
       </c>
+      <c r="DP20" s="14" t="n">
+        <v>81.499</v>
+      </c>
+      <c r="DQ20" s="14" t="n">
+        <v>88.583</v>
+      </c>
+      <c r="DR20" s="14" t="n">
+        <v>87.184</v>
+      </c>
+      <c r="DS20" s="14" t="n">
+        <v>106.698</v>
+      </c>
+      <c r="DT20" s="14" t="n">
+        <v>130.702</v>
+      </c>
+      <c r="DU20" s="14" t="n">
+        <v>107.803</v>
+      </c>
+      <c r="DV20" s="14" t="n">
+        <v>87.978</v>
+      </c>
+      <c r="DW20" s="14" t="n">
+        <v>92.126</v>
+      </c>
+      <c r="DX20" s="14" t="n">
+        <v>87.775</v>
+      </c>
+      <c r="DY20" s="14" t="n">
+        <v>96.646</v>
+      </c>
+      <c r="DZ20" s="14" t="n">
+        <v>84.918</v>
+      </c>
+      <c r="EA20" s="14" t="n">
+        <v>86.395</v>
+      </c>
+      <c r="EB20" s="14" t="n">
+        <v>86.028</v>
+      </c>
+      <c r="EC20" s="14" t="n">
+        <v>90.115</v>
+      </c>
+      <c r="ED20" s="14" t="n">
+        <v>95.334</v>
+      </c>
+      <c r="EE20" s="14" t="n">
+        <v>111.211</v>
+      </c>
+      <c r="EF20" s="14" t="n">
+        <v>116.265</v>
+      </c>
+      <c r="EG20" s="14" t="n">
+        <v>97.106</v>
+      </c>
+      <c r="EH20" s="14" t="n">
+        <v>89.256</v>
+      </c>
+      <c r="EI20" s="14" t="n">
+        <v>89.485</v>
+      </c>
+      <c r="EJ20" s="14" t="n">
+        <v>86.498</v>
+      </c>
+      <c r="EK20" s="14" t="n">
+        <v>91.063</v>
+      </c>
+      <c r="EL20" s="14" t="n">
+        <v>94.612</v>
+      </c>
+      <c r="EM20" s="14" t="n">
+        <v>76.387</v>
+      </c>
+      <c r="EN20" s="14" t="n">
+        <v>87.872</v>
+      </c>
+      <c r="EO20" s="14" t="n">
+        <v>84.404</v>
+      </c>
+      <c r="EP20" s="14" t="n">
+        <v>91.494</v>
+      </c>
+      <c r="EQ20" s="14" t="n">
+        <v>110.27</v>
+      </c>
+      <c r="ER20" s="14" t="n">
+        <v>114.171</v>
+      </c>
+      <c r="ES20" s="14" t="n">
+        <v>99.678</v>
+      </c>
+      <c r="ET20" s="14" t="n">
+        <v>89.535</v>
+      </c>
+      <c r="EU20" s="14" t="n">
+        <v>85.935</v>
+      </c>
+      <c r="EV20" s="14" t="n">
+        <v>94.925</v>
+      </c>
+      <c r="EW20" s="14" t="n">
+        <v>86.318</v>
+      </c>
+      <c r="EX20" s="14" t="n">
+        <v>74.588</v>
+      </c>
+      <c r="EY20" s="14" t="n">
+        <v>75.315</v>
+      </c>
+      <c r="EZ20" s="14" t="n">
+        <v>71.232</v>
+      </c>
+      <c r="FA20" s="14" t="n">
+        <v>87.321</v>
+      </c>
+      <c r="FB20" s="14" t="n">
+        <v>93.955</v>
+      </c>
+      <c r="FC20" s="14" t="n">
+        <v>107.128</v>
+      </c>
+      <c r="FD20" s="14" t="n">
+        <v>112.428</v>
+      </c>
+      <c r="FE20" s="14" t="n">
+        <v>99.725</v>
+      </c>
+      <c r="FF20" s="14" t="n">
+        <v>80.756</v>
+      </c>
+      <c r="FG20" s="14" t="n">
+        <v>83.196</v>
+      </c>
+      <c r="FH20" s="14" t="n">
+        <v>82.049</v>
+      </c>
+      <c r="FI20" s="14" t="n">
+        <v>95.27</v>
+      </c>
+      <c r="FJ20" s="14" t="n">
+        <v>97.697</v>
+      </c>
+      <c r="FK20" s="14" t="n">
+        <v>96.917</v>
+      </c>
+      <c r="FL20" s="14" t="n">
+        <v>111.867</v>
+      </c>
+      <c r="FM20" s="14" t="n">
+        <v>106.262</v>
+      </c>
+      <c r="FN20" s="14" t="n">
+        <v>98.272</v>
+      </c>
+      <c r="FO20" s="14" t="n">
+        <v>116.187</v>
+      </c>
+      <c r="FP20" s="14" t="n">
+        <v>131.087</v>
+      </c>
+      <c r="FQ20" s="14" t="n">
+        <v>104.623</v>
+      </c>
+      <c r="FR20" s="14" t="n">
+        <v>104.576</v>
+      </c>
+      <c r="FS20" s="14" t="n">
+        <v>106.387</v>
+      </c>
+      <c r="FT20" s="14" t="n">
+        <v>102.635</v>
+      </c>
+      <c r="FU20" s="14" t="n">
+        <v>119.971</v>
+      </c>
+      <c r="FV20" s="14" t="n">
+        <v>103.886</v>
+      </c>
+      <c r="FW20" s="14" t="n">
+        <v>101.761</v>
+      </c>
+      <c r="FX20" s="14" t="n">
+        <v>95.871</v>
+      </c>
+      <c r="FY20" s="14" t="n">
+        <v>106.972</v>
+      </c>
+      <c r="FZ20" s="14" t="n">
+        <v>110.63</v>
+      </c>
+      <c r="GA20" s="14" t="n">
+        <v>99.529</v>
+      </c>
+      <c r="GB20" s="14" t="n">
+        <v>105.206</v>
+      </c>
+      <c r="GC20" s="14" t="n">
+        <v>113.279</v>
+      </c>
+      <c r="GD20" s="14" t="n">
+        <v>119.587</v>
+      </c>
+      <c r="GE20" s="14" t="n">
+        <v>116.433</v>
+      </c>
+      <c r="GF20" s="14" t="n">
+        <v>115.045</v>
+      </c>
+      <c r="GG20" s="14" t="n">
+        <v>144.942</v>
+      </c>
+      <c r="GH20" s="14" t="n">
+        <v>112.396</v>
+      </c>
+      <c r="GI20" s="14" t="n">
+        <v>102.431</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -5664,6 +8616,222 @@
       <c r="DO21" s="14" t="n">
         <v>96.067</v>
       </c>
+      <c r="DP21" s="14" t="n">
+        <v>90.704</v>
+      </c>
+      <c r="DQ21" s="14" t="n">
+        <v>98.594</v>
+      </c>
+      <c r="DR21" s="14" t="n">
+        <v>99.242</v>
+      </c>
+      <c r="DS21" s="14" t="n">
+        <v>98.456</v>
+      </c>
+      <c r="DT21" s="14" t="n">
+        <v>81.556</v>
+      </c>
+      <c r="DU21" s="14" t="n">
+        <v>104.596</v>
+      </c>
+      <c r="DV21" s="14" t="n">
+        <v>103.58</v>
+      </c>
+      <c r="DW21" s="14" t="n">
+        <v>98.16</v>
+      </c>
+      <c r="DX21" s="14" t="n">
+        <v>92.013</v>
+      </c>
+      <c r="DY21" s="14" t="n">
+        <v>103.388</v>
+      </c>
+      <c r="DZ21" s="14" t="n">
+        <v>91.906</v>
+      </c>
+      <c r="EA21" s="14" t="n">
+        <v>90.417</v>
+      </c>
+      <c r="EB21" s="14" t="n">
+        <v>86.047</v>
+      </c>
+      <c r="EC21" s="14" t="n">
+        <v>94.284</v>
+      </c>
+      <c r="ED21" s="14" t="n">
+        <v>93.391</v>
+      </c>
+      <c r="EE21" s="14" t="n">
+        <v>95.9</v>
+      </c>
+      <c r="EF21" s="14" t="n">
+        <v>78.041</v>
+      </c>
+      <c r="EG21" s="14" t="n">
+        <v>94.004</v>
+      </c>
+      <c r="EH21" s="14" t="n">
+        <v>90.82</v>
+      </c>
+      <c r="EI21" s="14" t="n">
+        <v>94.743</v>
+      </c>
+      <c r="EJ21" s="14" t="n">
+        <v>93.408</v>
+      </c>
+      <c r="EK21" s="14" t="n">
+        <v>95.835</v>
+      </c>
+      <c r="EL21" s="14" t="n">
+        <v>95.275</v>
+      </c>
+      <c r="EM21" s="14" t="n">
+        <v>94.645</v>
+      </c>
+      <c r="EN21" s="14" t="n">
+        <v>85.371</v>
+      </c>
+      <c r="EO21" s="14" t="n">
+        <v>97.654</v>
+      </c>
+      <c r="EP21" s="14" t="n">
+        <v>100.178</v>
+      </c>
+      <c r="EQ21" s="14" t="n">
+        <v>97.168</v>
+      </c>
+      <c r="ER21" s="14" t="n">
+        <v>84.746</v>
+      </c>
+      <c r="ES21" s="14" t="n">
+        <v>102.255</v>
+      </c>
+      <c r="ET21" s="14" t="n">
+        <v>94.305</v>
+      </c>
+      <c r="EU21" s="14" t="n">
+        <v>103.643</v>
+      </c>
+      <c r="EV21" s="14" t="n">
+        <v>101.636</v>
+      </c>
+      <c r="EW21" s="14" t="n">
+        <v>94.011</v>
+      </c>
+      <c r="EX21" s="14" t="n">
+        <v>94.331</v>
+      </c>
+      <c r="EY21" s="14" t="n">
+        <v>97.743</v>
+      </c>
+      <c r="EZ21" s="14" t="n">
+        <v>84.52</v>
+      </c>
+      <c r="FA21" s="14" t="n">
+        <v>94.098</v>
+      </c>
+      <c r="FB21" s="14" t="n">
+        <v>98.438</v>
+      </c>
+      <c r="FC21" s="14" t="n">
+        <v>91.976</v>
+      </c>
+      <c r="FD21" s="14" t="n">
+        <v>86.143</v>
+      </c>
+      <c r="FE21" s="14" t="n">
+        <v>98.211</v>
+      </c>
+      <c r="FF21" s="14" t="n">
+        <v>92.587</v>
+      </c>
+      <c r="FG21" s="14" t="n">
+        <v>98.357</v>
+      </c>
+      <c r="FH21" s="14" t="n">
+        <v>89.344</v>
+      </c>
+      <c r="FI21" s="14" t="n">
+        <v>98.626</v>
+      </c>
+      <c r="FJ21" s="14" t="n">
+        <v>91.865</v>
+      </c>
+      <c r="FK21" s="14" t="n">
+        <v>93.13</v>
+      </c>
+      <c r="FL21" s="14" t="n">
+        <v>88.309</v>
+      </c>
+      <c r="FM21" s="14" t="n">
+        <v>104.212</v>
+      </c>
+      <c r="FN21" s="14" t="n">
+        <v>95.08</v>
+      </c>
+      <c r="FO21" s="14" t="n">
+        <v>98.676</v>
+      </c>
+      <c r="FP21" s="14" t="n">
+        <v>87.555</v>
+      </c>
+      <c r="FQ21" s="14" t="n">
+        <v>96.99</v>
+      </c>
+      <c r="FR21" s="14" t="n">
+        <v>101.042</v>
+      </c>
+      <c r="FS21" s="14" t="n">
+        <v>100.84</v>
+      </c>
+      <c r="FT21" s="14" t="n">
+        <v>99.131</v>
+      </c>
+      <c r="FU21" s="14" t="n">
+        <v>117.646</v>
+      </c>
+      <c r="FV21" s="14" t="n">
+        <v>104.353</v>
+      </c>
+      <c r="FW21" s="14" t="n">
+        <v>104.674</v>
+      </c>
+      <c r="FX21" s="14" t="n">
+        <v>97.915</v>
+      </c>
+      <c r="FY21" s="14" t="n">
+        <v>111.649</v>
+      </c>
+      <c r="FZ21" s="14" t="n">
+        <v>98.744</v>
+      </c>
+      <c r="GA21" s="14" t="n">
+        <v>102.77</v>
+      </c>
+      <c r="GB21" s="14" t="n">
+        <v>92.351</v>
+      </c>
+      <c r="GC21" s="14" t="n">
+        <v>117.925</v>
+      </c>
+      <c r="GD21" s="14" t="n">
+        <v>113.662</v>
+      </c>
+      <c r="GE21" s="14" t="n">
+        <v>105.256</v>
+      </c>
+      <c r="GF21" s="14" t="n">
+        <v>107.269</v>
+      </c>
+      <c r="GG21" s="14" t="n">
+        <v>118.516</v>
+      </c>
+      <c r="GH21" s="14" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="GI21" s="14" t="n">
+        <v>107.269</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -6025,6 +9193,222 @@
       <c r="DO22" s="14" t="n">
         <v>92.49</v>
       </c>
+      <c r="DP22" s="14" t="n">
+        <v>95.126</v>
+      </c>
+      <c r="DQ22" s="14" t="n">
+        <v>97.137</v>
+      </c>
+      <c r="DR22" s="14" t="n">
+        <v>98.496</v>
+      </c>
+      <c r="DS22" s="14" t="n">
+        <v>101.927</v>
+      </c>
+      <c r="DT22" s="14" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="DU22" s="14" t="n">
+        <v>102.876</v>
+      </c>
+      <c r="DV22" s="14" t="n">
+        <v>100.847</v>
+      </c>
+      <c r="DW22" s="14" t="n">
+        <v>93.921</v>
+      </c>
+      <c r="DX22" s="14" t="n">
+        <v>89.162</v>
+      </c>
+      <c r="DY22" s="14" t="n">
+        <v>96.416</v>
+      </c>
+      <c r="DZ22" s="14" t="n">
+        <v>92.304</v>
+      </c>
+      <c r="EA22" s="14" t="n">
+        <v>85.936</v>
+      </c>
+      <c r="EB22" s="14" t="n">
+        <v>90.265</v>
+      </c>
+      <c r="EC22" s="14" t="n">
+        <v>91.721</v>
+      </c>
+      <c r="ED22" s="14" t="n">
+        <v>96.702</v>
+      </c>
+      <c r="EE22" s="14" t="n">
+        <v>96.563</v>
+      </c>
+      <c r="EF22" s="14" t="n">
+        <v>65.719</v>
+      </c>
+      <c r="EG22" s="14" t="n">
+        <v>99.221</v>
+      </c>
+      <c r="EH22" s="14" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="EI22" s="14" t="n">
+        <v>90.321</v>
+      </c>
+      <c r="EJ22" s="14" t="n">
+        <v>89.311</v>
+      </c>
+      <c r="EK22" s="14" t="n">
+        <v>95.618</v>
+      </c>
+      <c r="EL22" s="14" t="n">
+        <v>89.216</v>
+      </c>
+      <c r="EM22" s="14" t="n">
+        <v>89.055</v>
+      </c>
+      <c r="EN22" s="14" t="n">
+        <v>88.279</v>
+      </c>
+      <c r="EO22" s="14" t="n">
+        <v>94.852</v>
+      </c>
+      <c r="EP22" s="14" t="n">
+        <v>98.526</v>
+      </c>
+      <c r="EQ22" s="14" t="n">
+        <v>93.445</v>
+      </c>
+      <c r="ER22" s="14" t="n">
+        <v>66.795</v>
+      </c>
+      <c r="ES22" s="14" t="n">
+        <v>97.977</v>
+      </c>
+      <c r="ET22" s="14" t="n">
+        <v>93.974</v>
+      </c>
+      <c r="EU22" s="14" t="n">
+        <v>93.759</v>
+      </c>
+      <c r="EV22" s="14" t="n">
+        <v>97.688</v>
+      </c>
+      <c r="EW22" s="14" t="n">
+        <v>89.195</v>
+      </c>
+      <c r="EX22" s="14" t="n">
+        <v>91.542</v>
+      </c>
+      <c r="EY22" s="14" t="n">
+        <v>91.573</v>
+      </c>
+      <c r="EZ22" s="14" t="n">
+        <v>87.832</v>
+      </c>
+      <c r="FA22" s="14" t="n">
+        <v>96.17</v>
+      </c>
+      <c r="FB22" s="14" t="n">
+        <v>96.93</v>
+      </c>
+      <c r="FC22" s="14" t="n">
+        <v>92.702</v>
+      </c>
+      <c r="FD22" s="14" t="n">
+        <v>71.998</v>
+      </c>
+      <c r="FE22" s="14" t="n">
+        <v>101.519</v>
+      </c>
+      <c r="FF22" s="14" t="n">
+        <v>96.278</v>
+      </c>
+      <c r="FG22" s="14" t="n">
+        <v>105.204</v>
+      </c>
+      <c r="FH22" s="14" t="n">
+        <v>89.163</v>
+      </c>
+      <c r="FI22" s="14" t="n">
+        <v>100.262</v>
+      </c>
+      <c r="FJ22" s="14" t="n">
+        <v>97.151</v>
+      </c>
+      <c r="FK22" s="14" t="n">
+        <v>92.981</v>
+      </c>
+      <c r="FL22" s="14" t="n">
+        <v>97.147</v>
+      </c>
+      <c r="FM22" s="14" t="n">
+        <v>103.79</v>
+      </c>
+      <c r="FN22" s="14" t="n">
+        <v>100.212</v>
+      </c>
+      <c r="FO22" s="14" t="n">
+        <v>102.171</v>
+      </c>
+      <c r="FP22" s="14" t="n">
+        <v>74.959</v>
+      </c>
+      <c r="FQ22" s="14" t="n">
+        <v>106.217</v>
+      </c>
+      <c r="FR22" s="14" t="n">
+        <v>110.034</v>
+      </c>
+      <c r="FS22" s="14" t="n">
+        <v>106.58</v>
+      </c>
+      <c r="FT22" s="14" t="n">
+        <v>104.989</v>
+      </c>
+      <c r="FU22" s="14" t="n">
+        <v>120.054</v>
+      </c>
+      <c r="FV22" s="14" t="n">
+        <v>108.532</v>
+      </c>
+      <c r="FW22" s="14" t="n">
+        <v>107.359</v>
+      </c>
+      <c r="FX22" s="14" t="n">
+        <v>106.844</v>
+      </c>
+      <c r="FY22" s="14" t="n">
+        <v>124.353</v>
+      </c>
+      <c r="FZ22" s="14" t="n">
+        <v>114.257</v>
+      </c>
+      <c r="GA22" s="14" t="n">
+        <v>112.979</v>
+      </c>
+      <c r="GB22" s="14" t="n">
+        <v>72.465</v>
+      </c>
+      <c r="GC22" s="14" t="n">
+        <v>116.429</v>
+      </c>
+      <c r="GD22" s="14" t="n">
+        <v>116.302</v>
+      </c>
+      <c r="GE22" s="14" t="n">
+        <v>114.896</v>
+      </c>
+      <c r="GF22" s="14" t="n">
+        <v>110.934</v>
+      </c>
+      <c r="GG22" s="14" t="n">
+        <v>123.331</v>
+      </c>
+      <c r="GH22" s="14" t="n">
+        <v>110.934</v>
+      </c>
+      <c r="GI22" s="14" t="n">
+        <v>95.853</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -6386,6 +9770,222 @@
       <c r="DO23" s="14" t="n">
         <v>72.432</v>
       </c>
+      <c r="DP23" s="14" t="n">
+        <v>81.443</v>
+      </c>
+      <c r="DQ23" s="14" t="n">
+        <v>85.956</v>
+      </c>
+      <c r="DR23" s="14" t="n">
+        <v>86.45</v>
+      </c>
+      <c r="DS23" s="14" t="n">
+        <v>86.991</v>
+      </c>
+      <c r="DT23" s="14" t="n">
+        <v>76.224</v>
+      </c>
+      <c r="DU23" s="14" t="n">
+        <v>101.838</v>
+      </c>
+      <c r="DV23" s="14" t="n">
+        <v>93.045</v>
+      </c>
+      <c r="DW23" s="14" t="n">
+        <v>90.285</v>
+      </c>
+      <c r="DX23" s="14" t="n">
+        <v>84.952</v>
+      </c>
+      <c r="DY23" s="14" t="n">
+        <v>86.182</v>
+      </c>
+      <c r="DZ23" s="14" t="n">
+        <v>80.613</v>
+      </c>
+      <c r="EA23" s="14" t="n">
+        <v>77.988</v>
+      </c>
+      <c r="EB23" s="14" t="n">
+        <v>76.611</v>
+      </c>
+      <c r="EC23" s="14" t="n">
+        <v>80.684</v>
+      </c>
+      <c r="ED23" s="14" t="n">
+        <v>88.469</v>
+      </c>
+      <c r="EE23" s="14" t="n">
+        <v>86.721</v>
+      </c>
+      <c r="EF23" s="14" t="n">
+        <v>74.966</v>
+      </c>
+      <c r="EG23" s="14" t="n">
+        <v>97.589</v>
+      </c>
+      <c r="EH23" s="14" t="n">
+        <v>85.976</v>
+      </c>
+      <c r="EI23" s="14" t="n">
+        <v>86.012</v>
+      </c>
+      <c r="EJ23" s="14" t="n">
+        <v>81.117</v>
+      </c>
+      <c r="EK23" s="14" t="n">
+        <v>81.623</v>
+      </c>
+      <c r="EL23" s="14" t="n">
+        <v>78.461</v>
+      </c>
+      <c r="EM23" s="14" t="n">
+        <v>76.991</v>
+      </c>
+      <c r="EN23" s="14" t="n">
+        <v>73.798</v>
+      </c>
+      <c r="EO23" s="14" t="n">
+        <v>83.694</v>
+      </c>
+      <c r="EP23" s="14" t="n">
+        <v>88.413</v>
+      </c>
+      <c r="EQ23" s="14" t="n">
+        <v>82.042</v>
+      </c>
+      <c r="ER23" s="14" t="n">
+        <v>76.662</v>
+      </c>
+      <c r="ES23" s="14" t="n">
+        <v>97.839</v>
+      </c>
+      <c r="ET23" s="14" t="n">
+        <v>83.952</v>
+      </c>
+      <c r="EU23" s="14" t="n">
+        <v>87.988</v>
+      </c>
+      <c r="EV23" s="14" t="n">
+        <v>83.991</v>
+      </c>
+      <c r="EW23" s="14" t="n">
+        <v>76.348</v>
+      </c>
+      <c r="EX23" s="14" t="n">
+        <v>77.524</v>
+      </c>
+      <c r="EY23" s="14" t="n">
+        <v>78.985</v>
+      </c>
+      <c r="EZ23" s="14" t="n">
+        <v>73.708</v>
+      </c>
+      <c r="FA23" s="14" t="n">
+        <v>83.586</v>
+      </c>
+      <c r="FB23" s="14" t="n">
+        <v>91.286</v>
+      </c>
+      <c r="FC23" s="14" t="n">
+        <v>82.828</v>
+      </c>
+      <c r="FD23" s="14" t="n">
+        <v>84.778</v>
+      </c>
+      <c r="FE23" s="14" t="n">
+        <v>93.79</v>
+      </c>
+      <c r="FF23" s="14" t="n">
+        <v>91.923</v>
+      </c>
+      <c r="FG23" s="14" t="n">
+        <v>88.767</v>
+      </c>
+      <c r="FH23" s="14" t="n">
+        <v>79.652</v>
+      </c>
+      <c r="FI23" s="14" t="n">
+        <v>88.033</v>
+      </c>
+      <c r="FJ23" s="14" t="n">
+        <v>84.178</v>
+      </c>
+      <c r="FK23" s="14" t="n">
+        <v>86.724</v>
+      </c>
+      <c r="FL23" s="14" t="n">
+        <v>85.639</v>
+      </c>
+      <c r="FM23" s="14" t="n">
+        <v>92.37</v>
+      </c>
+      <c r="FN23" s="14" t="n">
+        <v>86.726</v>
+      </c>
+      <c r="FO23" s="14" t="n">
+        <v>96.135</v>
+      </c>
+      <c r="FP23" s="14" t="n">
+        <v>83.608</v>
+      </c>
+      <c r="FQ23" s="14" t="n">
+        <v>99.891</v>
+      </c>
+      <c r="FR23" s="14" t="n">
+        <v>100.514</v>
+      </c>
+      <c r="FS23" s="14" t="n">
+        <v>98.324</v>
+      </c>
+      <c r="FT23" s="14" t="n">
+        <v>82.47</v>
+      </c>
+      <c r="FU23" s="14" t="n">
+        <v>97.675</v>
+      </c>
+      <c r="FV23" s="14" t="n">
+        <v>94.819</v>
+      </c>
+      <c r="FW23" s="14" t="n">
+        <v>97.893</v>
+      </c>
+      <c r="FX23" s="14" t="n">
+        <v>88.524</v>
+      </c>
+      <c r="FY23" s="14" t="n">
+        <v>95.772</v>
+      </c>
+      <c r="FZ23" s="14" t="n">
+        <v>103.258</v>
+      </c>
+      <c r="GA23" s="14" t="n">
+        <v>102.07</v>
+      </c>
+      <c r="GB23" s="14" t="n">
+        <v>76.166</v>
+      </c>
+      <c r="GC23" s="14" t="n">
+        <v>102.189</v>
+      </c>
+      <c r="GD23" s="14" t="n">
+        <v>103.852</v>
+      </c>
+      <c r="GE23" s="14" t="n">
+        <v>98.268</v>
+      </c>
+      <c r="GF23" s="14" t="n">
+        <v>94.584</v>
+      </c>
+      <c r="GG23" s="14" t="n">
+        <v>98.862</v>
+      </c>
+      <c r="GH23" s="14" t="n">
+        <v>91.376</v>
+      </c>
+      <c r="GI23" s="14" t="n">
+        <v>89.475</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
@@ -6747,6 +10347,222 @@
       <c r="DO24" s="14" t="n">
         <v>81.32</v>
       </c>
+      <c r="DP24" s="14" t="n">
+        <v>73.279</v>
+      </c>
+      <c r="DQ24" s="14" t="n">
+        <v>92.535</v>
+      </c>
+      <c r="DR24" s="14" t="n">
+        <v>96.72</v>
+      </c>
+      <c r="DS24" s="14" t="n">
+        <v>101.812</v>
+      </c>
+      <c r="DT24" s="14" t="n">
+        <v>60.532</v>
+      </c>
+      <c r="DU24" s="14" t="n">
+        <v>91.306</v>
+      </c>
+      <c r="DV24" s="14" t="n">
+        <v>102.909</v>
+      </c>
+      <c r="DW24" s="14" t="n">
+        <v>100.026</v>
+      </c>
+      <c r="DX24" s="14" t="n">
+        <v>89.086</v>
+      </c>
+      <c r="DY24" s="14" t="n">
+        <v>97.771</v>
+      </c>
+      <c r="DZ24" s="14" t="n">
+        <v>90.842</v>
+      </c>
+      <c r="EA24" s="14" t="n">
+        <v>82.293</v>
+      </c>
+      <c r="EB24" s="14" t="n">
+        <v>69.066</v>
+      </c>
+      <c r="EC24" s="14" t="n">
+        <v>89.544</v>
+      </c>
+      <c r="ED24" s="14" t="n">
+        <v>97.814</v>
+      </c>
+      <c r="EE24" s="14" t="n">
+        <v>97.266</v>
+      </c>
+      <c r="EF24" s="14" t="n">
+        <v>56.715</v>
+      </c>
+      <c r="EG24" s="14" t="n">
+        <v>90.801</v>
+      </c>
+      <c r="EH24" s="14" t="n">
+        <v>97.192</v>
+      </c>
+      <c r="EI24" s="14" t="n">
+        <v>95.803</v>
+      </c>
+      <c r="EJ24" s="14" t="n">
+        <v>90.445</v>
+      </c>
+      <c r="EK24" s="14" t="n">
+        <v>91.879</v>
+      </c>
+      <c r="EL24" s="14" t="n">
+        <v>88.904</v>
+      </c>
+      <c r="EM24" s="14" t="n">
+        <v>89.109</v>
+      </c>
+      <c r="EN24" s="14" t="n">
+        <v>69.319</v>
+      </c>
+      <c r="EO24" s="14" t="n">
+        <v>86.526</v>
+      </c>
+      <c r="EP24" s="14" t="n">
+        <v>94.534</v>
+      </c>
+      <c r="EQ24" s="14" t="n">
+        <v>90.862</v>
+      </c>
+      <c r="ER24" s="14" t="n">
+        <v>58.394</v>
+      </c>
+      <c r="ES24" s="14" t="n">
+        <v>82.526</v>
+      </c>
+      <c r="ET24" s="14" t="n">
+        <v>88.857</v>
+      </c>
+      <c r="EU24" s="14" t="n">
+        <v>92.371</v>
+      </c>
+      <c r="EV24" s="14" t="n">
+        <v>85.744</v>
+      </c>
+      <c r="EW24" s="14" t="n">
+        <v>83.168</v>
+      </c>
+      <c r="EX24" s="14" t="n">
+        <v>84.488</v>
+      </c>
+      <c r="EY24" s="14" t="n">
+        <v>85.433</v>
+      </c>
+      <c r="EZ24" s="14" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="FA24" s="14" t="n">
+        <v>87.46</v>
+      </c>
+      <c r="FB24" s="14" t="n">
+        <v>94.169</v>
+      </c>
+      <c r="FC24" s="14" t="n">
+        <v>88.368</v>
+      </c>
+      <c r="FD24" s="14" t="n">
+        <v>61.117</v>
+      </c>
+      <c r="FE24" s="14" t="n">
+        <v>82.133</v>
+      </c>
+      <c r="FF24" s="14" t="n">
+        <v>94.885</v>
+      </c>
+      <c r="FG24" s="14" t="n">
+        <v>95.049</v>
+      </c>
+      <c r="FH24" s="14" t="n">
+        <v>76.808</v>
+      </c>
+      <c r="FI24" s="14" t="n">
+        <v>89.961</v>
+      </c>
+      <c r="FJ24" s="14" t="n">
+        <v>90.283</v>
+      </c>
+      <c r="FK24" s="14" t="n">
+        <v>86.744</v>
+      </c>
+      <c r="FL24" s="14" t="n">
+        <v>70.047</v>
+      </c>
+      <c r="FM24" s="14" t="n">
+        <v>96.282</v>
+      </c>
+      <c r="FN24" s="14" t="n">
+        <v>90.176</v>
+      </c>
+      <c r="FO24" s="14" t="n">
+        <v>100.036</v>
+      </c>
+      <c r="FP24" s="14" t="n">
+        <v>68.372</v>
+      </c>
+      <c r="FQ24" s="14" t="n">
+        <v>81.685</v>
+      </c>
+      <c r="FR24" s="14" t="n">
+        <v>100.676</v>
+      </c>
+      <c r="FS24" s="14" t="n">
+        <v>105.01</v>
+      </c>
+      <c r="FT24" s="14" t="n">
+        <v>86.801</v>
+      </c>
+      <c r="FU24" s="14" t="n">
+        <v>107.738</v>
+      </c>
+      <c r="FV24" s="14" t="n">
+        <v>99.669</v>
+      </c>
+      <c r="FW24" s="14" t="n">
+        <v>88.882</v>
+      </c>
+      <c r="FX24" s="14" t="n">
+        <v>77.435</v>
+      </c>
+      <c r="FY24" s="14" t="n">
+        <v>106.939</v>
+      </c>
+      <c r="FZ24" s="14" t="n">
+        <v>98.205</v>
+      </c>
+      <c r="GA24" s="14" t="n">
+        <v>100.228</v>
+      </c>
+      <c r="GB24" s="14" t="n">
+        <v>62.949</v>
+      </c>
+      <c r="GC24" s="14" t="n">
+        <v>90.962</v>
+      </c>
+      <c r="GD24" s="14" t="n">
+        <v>107.365</v>
+      </c>
+      <c r="GE24" s="14" t="n">
+        <v>102.146</v>
+      </c>
+      <c r="GF24" s="14" t="n">
+        <v>96.181</v>
+      </c>
+      <c r="GG24" s="14" t="n">
+        <v>102.252</v>
+      </c>
+      <c r="GH24" s="14" t="n">
+        <v>93.731</v>
+      </c>
+      <c r="GI24" s="14" t="n">
+        <v>84.997</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
@@ -7108,6 +10924,222 @@
       <c r="DO25" s="14" t="n">
         <v>93.531</v>
       </c>
+      <c r="DP25" s="14" t="n">
+        <v>94.465</v>
+      </c>
+      <c r="DQ25" s="14" t="n">
+        <v>104.819</v>
+      </c>
+      <c r="DR25" s="14" t="n">
+        <v>104.724</v>
+      </c>
+      <c r="DS25" s="14" t="n">
+        <v>109.166</v>
+      </c>
+      <c r="DT25" s="14" t="n">
+        <v>63.429</v>
+      </c>
+      <c r="DU25" s="14" t="n">
+        <v>110.49</v>
+      </c>
+      <c r="DV25" s="14" t="n">
+        <v>110.876</v>
+      </c>
+      <c r="DW25" s="14" t="n">
+        <v>102.51</v>
+      </c>
+      <c r="DX25" s="14" t="n">
+        <v>93.824</v>
+      </c>
+      <c r="DY25" s="14" t="n">
+        <v>101.997</v>
+      </c>
+      <c r="DZ25" s="14" t="n">
+        <v>94.928</v>
+      </c>
+      <c r="EA25" s="14" t="n">
+        <v>86.607</v>
+      </c>
+      <c r="EB25" s="14" t="n">
+        <v>90.512</v>
+      </c>
+      <c r="EC25" s="14" t="n">
+        <v>97.039</v>
+      </c>
+      <c r="ED25" s="14" t="n">
+        <v>106.087</v>
+      </c>
+      <c r="EE25" s="14" t="n">
+        <v>103.669</v>
+      </c>
+      <c r="EF25" s="14" t="n">
+        <v>60.256</v>
+      </c>
+      <c r="EG25" s="14" t="n">
+        <v>100.317</v>
+      </c>
+      <c r="EH25" s="14" t="n">
+        <v>102.554</v>
+      </c>
+      <c r="EI25" s="14" t="n">
+        <v>99.679</v>
+      </c>
+      <c r="EJ25" s="14" t="n">
+        <v>88.827</v>
+      </c>
+      <c r="EK25" s="14" t="n">
+        <v>100.405</v>
+      </c>
+      <c r="EL25" s="14" t="n">
+        <v>95.611</v>
+      </c>
+      <c r="EM25" s="14" t="n">
+        <v>89.975</v>
+      </c>
+      <c r="EN25" s="14" t="n">
+        <v>84.319</v>
+      </c>
+      <c r="EO25" s="14" t="n">
+        <v>100.717</v>
+      </c>
+      <c r="EP25" s="14" t="n">
+        <v>104.924</v>
+      </c>
+      <c r="EQ25" s="14" t="n">
+        <v>97.145</v>
+      </c>
+      <c r="ER25" s="14" t="n">
+        <v>62.538</v>
+      </c>
+      <c r="ES25" s="14" t="n">
+        <v>99.709</v>
+      </c>
+      <c r="ET25" s="14" t="n">
+        <v>103.158</v>
+      </c>
+      <c r="EU25" s="14" t="n">
+        <v>102.736</v>
+      </c>
+      <c r="EV25" s="14" t="n">
+        <v>95.804</v>
+      </c>
+      <c r="EW25" s="14" t="n">
+        <v>95.04</v>
+      </c>
+      <c r="EX25" s="14" t="n">
+        <v>94.089</v>
+      </c>
+      <c r="EY25" s="14" t="n">
+        <v>94.128</v>
+      </c>
+      <c r="EZ25" s="14" t="n">
+        <v>82.798</v>
+      </c>
+      <c r="FA25" s="14" t="n">
+        <v>102.05</v>
+      </c>
+      <c r="FB25" s="14" t="n">
+        <v>104.537</v>
+      </c>
+      <c r="FC25" s="14" t="n">
+        <v>94.924</v>
+      </c>
+      <c r="FD25" s="14" t="n">
+        <v>65.213</v>
+      </c>
+      <c r="FE25" s="14" t="n">
+        <v>105.805</v>
+      </c>
+      <c r="FF25" s="14" t="n">
+        <v>106.083</v>
+      </c>
+      <c r="FG25" s="14" t="n">
+        <v>107.546</v>
+      </c>
+      <c r="FH25" s="14" t="n">
+        <v>90.683</v>
+      </c>
+      <c r="FI25" s="14" t="n">
+        <v>108.773</v>
+      </c>
+      <c r="FJ25" s="14" t="n">
+        <v>106.356</v>
+      </c>
+      <c r="FK25" s="14" t="n">
+        <v>99.732</v>
+      </c>
+      <c r="FL25" s="14" t="n">
+        <v>93.718</v>
+      </c>
+      <c r="FM25" s="14" t="n">
+        <v>109.929</v>
+      </c>
+      <c r="FN25" s="14" t="n">
+        <v>105.515</v>
+      </c>
+      <c r="FO25" s="14" t="n">
+        <v>108.699</v>
+      </c>
+      <c r="FP25" s="14" t="n">
+        <v>68.621</v>
+      </c>
+      <c r="FQ25" s="14" t="n">
+        <v>110.865</v>
+      </c>
+      <c r="FR25" s="14" t="n">
+        <v>113.607</v>
+      </c>
+      <c r="FS25" s="14" t="n">
+        <v>113.875</v>
+      </c>
+      <c r="FT25" s="14" t="n">
+        <v>96.141</v>
+      </c>
+      <c r="FU25" s="14" t="n">
+        <v>116.204</v>
+      </c>
+      <c r="FV25" s="14" t="n">
+        <v>108.128</v>
+      </c>
+      <c r="FW25" s="14" t="n">
+        <v>94.563</v>
+      </c>
+      <c r="FX25" s="14" t="n">
+        <v>100.817</v>
+      </c>
+      <c r="FY25" s="14" t="n">
+        <v>118.387</v>
+      </c>
+      <c r="FZ25" s="14" t="n">
+        <v>107.118</v>
+      </c>
+      <c r="GA25" s="14" t="n">
+        <v>112.934</v>
+      </c>
+      <c r="GB25" s="14" t="n">
+        <v>65.797</v>
+      </c>
+      <c r="GC25" s="14" t="n">
+        <v>114.146</v>
+      </c>
+      <c r="GD25" s="14" t="n">
+        <v>112.328</v>
+      </c>
+      <c r="GE25" s="14" t="n">
+        <v>112.813</v>
+      </c>
+      <c r="GF25" s="14" t="n">
+        <v>101.422</v>
+      </c>
+      <c r="GG25" s="14" t="n">
+        <v>115.236</v>
+      </c>
+      <c r="GH25" s="14" t="n">
+        <v>99.12</v>
+      </c>
+      <c r="GI25" s="14" t="n">
+        <v>95.364</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
@@ -7468,6 +11500,222 @@
       </c>
       <c r="DO26" s="14" t="n">
         <v>105.336</v>
+      </c>
+      <c r="DP26" s="14" t="n">
+        <v>103.093</v>
+      </c>
+      <c r="DQ26" s="14" t="n">
+        <v>128.159</v>
+      </c>
+      <c r="DR26" s="14" t="n">
+        <v>127.882</v>
+      </c>
+      <c r="DS26" s="14" t="n">
+        <v>123.254</v>
+      </c>
+      <c r="DT26" s="14" t="n">
+        <v>87.741</v>
+      </c>
+      <c r="DU26" s="14" t="n">
+        <v>129.764</v>
+      </c>
+      <c r="DV26" s="14" t="n">
+        <v>115.254</v>
+      </c>
+      <c r="DW26" s="14" t="n">
+        <v>117.468</v>
+      </c>
+      <c r="DX26" s="14" t="n">
+        <v>111.92</v>
+      </c>
+      <c r="DY26" s="14" t="n">
+        <v>136.067</v>
+      </c>
+      <c r="DZ26" s="14" t="n">
+        <v>124.814</v>
+      </c>
+      <c r="EA26" s="14" t="n">
+        <v>108.685</v>
+      </c>
+      <c r="EB26" s="14" t="n">
+        <v>102.976</v>
+      </c>
+      <c r="EC26" s="14" t="n">
+        <v>118.506</v>
+      </c>
+      <c r="ED26" s="14" t="n">
+        <v>127.572</v>
+      </c>
+      <c r="EE26" s="14" t="n">
+        <v>120.752</v>
+      </c>
+      <c r="EF26" s="14" t="n">
+        <v>75.518</v>
+      </c>
+      <c r="EG26" s="14" t="n">
+        <v>127.677</v>
+      </c>
+      <c r="EH26" s="14" t="n">
+        <v>118.554</v>
+      </c>
+      <c r="EI26" s="14" t="n">
+        <v>118.76</v>
+      </c>
+      <c r="EJ26" s="14" t="n">
+        <v>113.776</v>
+      </c>
+      <c r="EK26" s="14" t="n">
+        <v>122.008</v>
+      </c>
+      <c r="EL26" s="14" t="n">
+        <v>113.412</v>
+      </c>
+      <c r="EM26" s="14" t="n">
+        <v>110.747</v>
+      </c>
+      <c r="EN26" s="14" t="n">
+        <v>96.202</v>
+      </c>
+      <c r="EO26" s="14" t="n">
+        <v>117.104</v>
+      </c>
+      <c r="EP26" s="14" t="n">
+        <v>124.926</v>
+      </c>
+      <c r="EQ26" s="14" t="n">
+        <v>103.884</v>
+      </c>
+      <c r="ER26" s="14" t="n">
+        <v>73.841</v>
+      </c>
+      <c r="ES26" s="14" t="n">
+        <v>112.164</v>
+      </c>
+      <c r="ET26" s="14" t="n">
+        <v>100.536</v>
+      </c>
+      <c r="EU26" s="14" t="n">
+        <v>115.82</v>
+      </c>
+      <c r="EV26" s="14" t="n">
+        <v>119.544</v>
+      </c>
+      <c r="EW26" s="14" t="n">
+        <v>109.949</v>
+      </c>
+      <c r="EX26" s="14" t="n">
+        <v>110.804</v>
+      </c>
+      <c r="EY26" s="14" t="n">
+        <v>113.926</v>
+      </c>
+      <c r="EZ26" s="14" t="n">
+        <v>96.413</v>
+      </c>
+      <c r="FA26" s="14" t="n">
+        <v>121.541</v>
+      </c>
+      <c r="FB26" s="14" t="n">
+        <v>125.525</v>
+      </c>
+      <c r="FC26" s="14" t="n">
+        <v>111.826</v>
+      </c>
+      <c r="FD26" s="14" t="n">
+        <v>84.685</v>
+      </c>
+      <c r="FE26" s="14" t="n">
+        <v>123.632</v>
+      </c>
+      <c r="FF26" s="14" t="n">
+        <v>111.034</v>
+      </c>
+      <c r="FG26" s="14" t="n">
+        <v>128.763</v>
+      </c>
+      <c r="FH26" s="14" t="n">
+        <v>107.556</v>
+      </c>
+      <c r="FI26" s="14" t="n">
+        <v>122.161</v>
+      </c>
+      <c r="FJ26" s="14" t="n">
+        <v>121.262</v>
+      </c>
+      <c r="FK26" s="14" t="n">
+        <v>107.761</v>
+      </c>
+      <c r="FL26" s="14" t="n">
+        <v>108.749</v>
+      </c>
+      <c r="FM26" s="14" t="n">
+        <v>126.946</v>
+      </c>
+      <c r="FN26" s="14" t="n">
+        <v>127.297</v>
+      </c>
+      <c r="FO26" s="14" t="n">
+        <v>122.737</v>
+      </c>
+      <c r="FP26" s="14" t="n">
+        <v>96.425</v>
+      </c>
+      <c r="FQ26" s="14" t="n">
+        <v>121.233</v>
+      </c>
+      <c r="FR26" s="14" t="n">
+        <v>130.602</v>
+      </c>
+      <c r="FS26" s="14" t="n">
+        <v>136.563</v>
+      </c>
+      <c r="FT26" s="14" t="n">
+        <v>110.482</v>
+      </c>
+      <c r="FU26" s="14" t="n">
+        <v>144.958</v>
+      </c>
+      <c r="FV26" s="14" t="n">
+        <v>136.442</v>
+      </c>
+      <c r="FW26" s="14" t="n">
+        <v>126.987</v>
+      </c>
+      <c r="FX26" s="14" t="n">
+        <v>111.982</v>
+      </c>
+      <c r="FY26" s="14" t="n">
+        <v>142.644</v>
+      </c>
+      <c r="FZ26" s="14" t="n">
+        <v>131.683</v>
+      </c>
+      <c r="GA26" s="14" t="n">
+        <v>114.649</v>
+      </c>
+      <c r="GB26" s="14" t="n">
+        <v>87.838</v>
+      </c>
+      <c r="GC26" s="14" t="n">
+        <v>123.092</v>
+      </c>
+      <c r="GD26" s="14" t="n">
+        <v>130.35</v>
+      </c>
+      <c r="GE26" s="14" t="n">
+        <v>136.423</v>
+      </c>
+      <c r="GF26" s="14" t="n">
+        <v>128.869</v>
+      </c>
+      <c r="GG26" s="14" t="n">
+        <v>144.125</v>
+      </c>
+      <c r="GH26" s="14" t="n">
+        <v>122.499</v>
+      </c>
+      <c r="GI26" s="14" t="n">
+        <v>117.167</v>
       </c>
     </row>
     <row r="29">
@@ -7506,8 +11754,8 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B7:DO7"/>
-    <mergeCell ref="B8:DO8"/>
+    <mergeCell ref="B7:GI7"/>
+    <mergeCell ref="B8:GI8"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
